--- a/excel/OilSandsExcel_v22.xlsx
+++ b/excel/OilSandsExcel_v22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" tabRatio="664" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" tabRatio="664"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -1099,9 +1099,6 @@
     <t>Average Solar Energy Insoluation (kWh/m^2/year)</t>
   </si>
   <si>
-    <t>These are the numbers we had before and they dio NOT jive with the plots in the workbook tab "Solar", so I instead used the more conservative values from the plot</t>
-  </si>
-  <si>
     <t>Wind Graphs</t>
   </si>
   <si>
@@ -1205,6 +1202,9 @@
   </si>
   <si>
     <t>Updated CarbonFootprint section</t>
+  </si>
+  <si>
+    <t>These are the numbers we had before and they dio NOT give with the plots in the workbook tab "Solar", so I instead used the more conservative values from the plot</t>
   </si>
 </sst>
 </file>
@@ -2824,6 +2824,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="29" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="1" fontId="39" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2929,35 +2958,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="29" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="1" fontId="39" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3393,11 +3393,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="272337504"/>
-        <c:axId val="272339680"/>
+        <c:axId val="228644560"/>
+        <c:axId val="228642384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="272337504"/>
+        <c:axId val="228644560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,7 +3434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272339680"/>
+        <c:crossAx val="228642384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3442,7 +3442,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="272339680"/>
+        <c:axId val="228642384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3493,7 +3493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272337504"/>
+        <c:crossAx val="228644560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3969,11 +3969,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="272340224"/>
-        <c:axId val="272342944"/>
+        <c:axId val="228647824"/>
+        <c:axId val="167730928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="272340224"/>
+        <c:axId val="228647824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4019,7 +4019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272342944"/>
+        <c:crossAx val="167730928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4027,7 +4027,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="272342944"/>
+        <c:axId val="167730928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4087,7 +4087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272340224"/>
+        <c:crossAx val="228647824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4145,7 +4145,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6588,11 +6587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="272343488"/>
-        <c:axId val="272345120"/>
+        <c:axId val="21563952"/>
+        <c:axId val="235768144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="272343488"/>
+        <c:axId val="21563952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6652,12 +6651,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272345120"/>
+        <c:crossAx val="235768144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="272345120"/>
+        <c:axId val="235768144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6716,7 +6715,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -6738,7 +6736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272343488"/>
+        <c:crossAx val="21563952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6808,7 +6806,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9245,11 +9242,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="272346208"/>
-        <c:axId val="272346752"/>
+        <c:axId val="235765424"/>
+        <c:axId val="235767600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="272346208"/>
+        <c:axId val="235765424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9280,7 +9277,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -9302,12 +9298,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272346752"/>
+        <c:crossAx val="235767600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="272346752"/>
+        <c:axId val="235767600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9362,7 +9358,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -9384,7 +9379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272346208"/>
+        <c:crossAx val="235765424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9396,7 +9391,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9838,11 +9832,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="224590096"/>
-        <c:axId val="224598256"/>
+        <c:axId val="235768688"/>
+        <c:axId val="235769232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224590096"/>
+        <c:axId val="235768688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9881,7 +9875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224598256"/>
+        <c:crossAx val="235769232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9889,7 +9883,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224598256"/>
+        <c:axId val="235769232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9942,7 +9936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224590096"/>
+        <c:crossAx val="235768688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9992,7 +9986,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12428,11 +12421,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="360506096"/>
-        <c:axId val="360507184"/>
+        <c:axId val="235757808"/>
+        <c:axId val="235761072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="360506096"/>
+        <c:axId val="235757808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12469,7 +12462,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -12491,12 +12483,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360507184"/>
+        <c:crossAx val="235761072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="360507184"/>
+        <c:axId val="235761072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12554,7 +12546,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -12576,7 +12567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360506096"/>
+        <c:crossAx val="235757808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15082,11 +15073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="360505008"/>
-        <c:axId val="360510448"/>
+        <c:axId val="235758352"/>
+        <c:axId val="235756176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="360505008"/>
+        <c:axId val="235758352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15123,7 +15114,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -15145,12 +15135,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360510448"/>
+        <c:crossAx val="235756176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="360510448"/>
+        <c:axId val="235756176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15216,7 +15206,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360505008"/>
+        <c:crossAx val="235758352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15228,7 +15218,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -15288,7 +15277,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16543,11 +16531,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="371725792"/>
-        <c:axId val="371733408"/>
+        <c:axId val="235757264"/>
+        <c:axId val="235767056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="371725792"/>
+        <c:axId val="235757264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16656,7 +16644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371733408"/>
+        <c:crossAx val="235767056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16664,7 +16652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371733408"/>
+        <c:axId val="235767056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16781,7 +16769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371725792"/>
+        <c:crossAx val="235757264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16795,7 +16783,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16907,7 +16894,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17764,11 +17750,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="371859952"/>
-        <c:axId val="371867024"/>
+        <c:axId val="235759440"/>
+        <c:axId val="235762160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="371859952"/>
+        <c:axId val="235759440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17877,7 +17863,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371867024"/>
+        <c:crossAx val="235762160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17885,7 +17871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371867024"/>
+        <c:axId val="235762160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17934,7 +17920,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17995,7 +17980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371859952"/>
+        <c:crossAx val="235759440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18009,7 +17994,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19855,8 +19839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -19874,20 +19858,20 @@
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="345" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="347"/>
+      <c r="B1" s="362" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="363"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="363"/>
+      <c r="F1" s="363"/>
+      <c r="G1" s="363"/>
+      <c r="H1" s="363"/>
+      <c r="I1" s="363"/>
+      <c r="J1" s="363"/>
+      <c r="K1" s="363"/>
+      <c r="L1" s="363"/>
+      <c r="M1" s="364"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="183"/>
@@ -19941,7 +19925,7 @@
     <row r="5" spans="1:13">
       <c r="A5" s="183"/>
       <c r="B5" s="209" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="190"/>
@@ -20497,7 +20481,7 @@
     <row r="34" spans="1:13">
       <c r="A34" s="183"/>
       <c r="B34" s="343" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C34" s="108">
         <f>C33+C32</f>
@@ -20755,15 +20739,15 @@
         <v>200</v>
       </c>
       <c r="D47" s="188"/>
-      <c r="E47" s="352"/>
-      <c r="F47" s="349"/>
-      <c r="G47" s="349"/>
-      <c r="H47" s="349"/>
-      <c r="I47" s="349"/>
-      <c r="J47" s="349"/>
-      <c r="K47" s="349"/>
-      <c r="L47" s="349"/>
-      <c r="M47" s="349"/>
+      <c r="E47" s="369"/>
+      <c r="F47" s="366"/>
+      <c r="G47" s="366"/>
+      <c r="H47" s="366"/>
+      <c r="I47" s="366"/>
+      <c r="J47" s="366"/>
+      <c r="K47" s="366"/>
+      <c r="L47" s="366"/>
+      <c r="M47" s="366"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="183"/>
@@ -21070,9 +21054,9 @@
         <v>141.78240740740739</v>
       </c>
       <c r="D63" s="197"/>
-      <c r="E63" s="348"/>
-      <c r="F63" s="349"/>
-      <c r="G63" s="349"/>
+      <c r="E63" s="365"/>
+      <c r="F63" s="366"/>
+      <c r="G63" s="366"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -21090,9 +21074,9 @@
         <v>1242.0138888888887</v>
       </c>
       <c r="D64" s="197"/>
-      <c r="E64" s="349"/>
-      <c r="F64" s="349"/>
-      <c r="G64" s="349"/>
+      <c r="E64" s="366"/>
+      <c r="F64" s="366"/>
+      <c r="G64" s="366"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -21350,14 +21334,14 @@
         <v>22</v>
       </c>
       <c r="D78" s="201"/>
-      <c r="E78" s="350" t="s">
+      <c r="E78" s="367" t="s">
         <v>347</v>
       </c>
-      <c r="F78" s="349"/>
-      <c r="G78" s="349"/>
-      <c r="H78" s="349"/>
-      <c r="I78" s="349"/>
-      <c r="J78" s="349"/>
+      <c r="F78" s="366"/>
+      <c r="G78" s="366"/>
+      <c r="H78" s="366"/>
+      <c r="I78" s="366"/>
+      <c r="J78" s="366"/>
       <c r="K78" s="183"/>
       <c r="L78" s="183"/>
       <c r="M78" s="183"/>
@@ -21372,12 +21356,12 @@
         <v>2.5</v>
       </c>
       <c r="D79" s="183"/>
-      <c r="E79" s="349"/>
-      <c r="F79" s="349"/>
-      <c r="G79" s="349"/>
-      <c r="H79" s="349"/>
-      <c r="I79" s="349"/>
-      <c r="J79" s="349"/>
+      <c r="E79" s="366"/>
+      <c r="F79" s="366"/>
+      <c r="G79" s="366"/>
+      <c r="H79" s="366"/>
+      <c r="I79" s="366"/>
+      <c r="J79" s="366"/>
       <c r="K79" s="183"/>
       <c r="L79" s="183"/>
       <c r="M79" s="183"/>
@@ -21460,8 +21444,8 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="183"/>
-      <c r="B84" s="351" t="s">
-        <v>355</v>
+      <c r="B84" s="368" t="s">
+        <v>386</v>
       </c>
       <c r="C84" s="161">
         <v>6250</v>
@@ -21482,7 +21466,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="183"/>
-      <c r="B85" s="349"/>
+      <c r="B85" s="366"/>
       <c r="C85" s="161">
         <v>1389</v>
       </c>
@@ -21577,23 +21561,23 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="353" t="s">
+      <c r="B1" s="370" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="353"/>
-      <c r="D1" s="353"/>
-      <c r="E1" s="353"/>
-      <c r="F1" s="353"/>
-      <c r="G1" s="353"/>
-      <c r="H1" s="353"/>
-      <c r="I1" s="353"/>
-      <c r="J1" s="353"/>
-      <c r="K1" s="353"/>
-      <c r="L1" s="353"/>
-      <c r="M1" s="353"/>
-      <c r="N1" s="353"/>
-      <c r="O1" s="353"/>
-      <c r="P1" s="353"/>
+      <c r="C1" s="370"/>
+      <c r="D1" s="370"/>
+      <c r="E1" s="370"/>
+      <c r="F1" s="370"/>
+      <c r="G1" s="370"/>
+      <c r="H1" s="370"/>
+      <c r="I1" s="370"/>
+      <c r="J1" s="370"/>
+      <c r="K1" s="370"/>
+      <c r="L1" s="370"/>
+      <c r="M1" s="370"/>
+      <c r="N1" s="370"/>
+      <c r="O1" s="370"/>
+      <c r="P1" s="370"/>
     </row>
     <row r="2" spans="1:16" s="184" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="183"/>
@@ -21614,24 +21598,24 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="183"/>
-      <c r="B3" s="367" t="s">
+      <c r="B3" s="384" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="368"/>
-      <c r="D3" s="368"/>
-      <c r="E3" s="368"/>
-      <c r="F3" s="368"/>
-      <c r="G3" s="368"/>
-      <c r="H3" s="369"/>
-      <c r="J3" s="367" t="s">
+      <c r="C3" s="385"/>
+      <c r="D3" s="385"/>
+      <c r="E3" s="385"/>
+      <c r="F3" s="385"/>
+      <c r="G3" s="385"/>
+      <c r="H3" s="386"/>
+      <c r="J3" s="384" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="368"/>
-      <c r="L3" s="368"/>
-      <c r="M3" s="368"/>
-      <c r="N3" s="368"/>
-      <c r="O3" s="368"/>
-      <c r="P3" s="369"/>
+      <c r="K3" s="385"/>
+      <c r="L3" s="385"/>
+      <c r="M3" s="385"/>
+      <c r="N3" s="385"/>
+      <c r="O3" s="385"/>
+      <c r="P3" s="386"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="183"/>
@@ -21639,44 +21623,44 @@
         <v>45</v>
       </c>
       <c r="C4" s="219" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="I4" s="183"/>
       <c r="J4" s="43" t="s">
         <v>45</v>
       </c>
       <c r="K4" s="219" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -24574,8 +24558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -24586,9 +24570,9 @@
     <col min="7" max="7" width="20.7109375" style="332" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="385" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="346" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="386" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="347" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" style="344" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -24610,35 +24594,35 @@
         <v>271</v>
       </c>
       <c r="G3" s="334" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="I3" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="J3" s="355" t="s">
         <v>378</v>
       </c>
-      <c r="J3" s="394" t="s">
+      <c r="K3" s="336" t="s">
         <v>379</v>
       </c>
-      <c r="K3" s="336" t="s">
+      <c r="L3" s="352" t="s">
         <v>380</v>
       </c>
-      <c r="L3" s="391" t="s">
-        <v>381</v>
-      </c>
       <c r="M3" s="336" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="3:19" ht="15.75" thickBot="1">
       <c r="C4" s="325">
         <v>1</v>
       </c>
-      <c r="D4" s="397">
+      <c r="D4" s="358">
         <v>49.716666666666669</v>
       </c>
-      <c r="E4" s="398">
+      <c r="E4" s="359">
         <v>298.20499999999998</v>
       </c>
       <c r="F4" s="119">
@@ -24649,27 +24633,27 @@
         <f>(F4*140000000)/1000000000</f>
         <v>48.709033333333331</v>
       </c>
-      <c r="H4" s="384">
+      <c r="H4" s="345">
         <f>(F4*20000000)/1000000000</f>
         <v>6.9584333333333319</v>
       </c>
-      <c r="I4" s="384">
+      <c r="I4" s="345">
         <f>(F4*30000000)/1000000000</f>
         <v>10.437649999999998</v>
       </c>
-      <c r="J4" s="393">
+      <c r="J4" s="354">
         <f>M4/1000000000</f>
         <v>5.2012499999999999</v>
       </c>
-      <c r="K4" s="396">
+      <c r="K4" s="357">
         <f>J4/H4</f>
         <v>0.74747428779466651</v>
       </c>
-      <c r="L4" s="396">
+      <c r="L4" s="357">
         <f>J4/I4</f>
         <v>0.49831619186311105</v>
       </c>
-      <c r="M4" s="389">
+      <c r="M4" s="350">
         <v>5201250000</v>
       </c>
     </row>
@@ -24677,10 +24661,10 @@
       <c r="C5" s="326">
         <v>2</v>
       </c>
-      <c r="D5" s="397">
+      <c r="D5" s="358">
         <v>99.433333333333294</v>
       </c>
-      <c r="E5" s="398">
+      <c r="E5" s="359">
         <v>596.41</v>
       </c>
       <c r="F5" s="119">
@@ -24691,27 +24675,27 @@
         <f t="shared" ref="G5:G63" si="1">(F5*140000000)/1000000000</f>
         <v>97.418066666666661</v>
       </c>
-      <c r="H5" s="384">
+      <c r="H5" s="345">
         <f t="shared" ref="H5:H63" si="2">(F5*20000000)/1000000000</f>
         <v>13.916866666666664</v>
       </c>
-      <c r="I5" s="384">
+      <c r="I5" s="345">
         <f t="shared" ref="I5:I63" si="3">(F5*30000000)/1000000000</f>
         <v>20.875299999999996</v>
       </c>
-      <c r="J5" s="393">
+      <c r="J5" s="354">
         <f t="shared" ref="J5:J63" si="4">M5/1000000000</f>
         <v>5.6693625000000001</v>
       </c>
-      <c r="K5" s="396">
+      <c r="K5" s="357">
         <f t="shared" ref="K5:K63" si="5">J5/H5</f>
         <v>0.40737348684809327</v>
       </c>
-      <c r="L5" s="396">
+      <c r="L5" s="357">
         <f t="shared" ref="L5:L63" si="6">J5/I5</f>
         <v>0.27158232456539555</v>
       </c>
-      <c r="M5" s="389">
+      <c r="M5" s="350">
         <v>5669362500</v>
       </c>
     </row>
@@ -24719,10 +24703,10 @@
       <c r="C6" s="326">
         <v>3</v>
       </c>
-      <c r="D6" s="397">
+      <c r="D6" s="358">
         <v>149.15</v>
       </c>
-      <c r="E6" s="398">
+      <c r="E6" s="359">
         <v>894.61500000000001</v>
       </c>
       <c r="F6" s="119">
@@ -24733,27 +24717,27 @@
         <f t="shared" si="1"/>
         <v>146.12710000000001</v>
       </c>
-      <c r="H6" s="384">
+      <c r="H6" s="345">
         <f t="shared" si="2"/>
         <v>20.875300000000003</v>
       </c>
-      <c r="I6" s="384">
+      <c r="I6" s="345">
         <f t="shared" si="3"/>
         <v>31.312950000000004</v>
       </c>
-      <c r="J6" s="393">
+      <c r="J6" s="354">
         <f t="shared" si="4"/>
         <v>6.1787625000000004</v>
       </c>
-      <c r="K6" s="396">
+      <c r="K6" s="357">
         <f t="shared" si="5"/>
         <v>0.29598436908691128</v>
       </c>
-      <c r="L6" s="396">
+      <c r="L6" s="357">
         <f t="shared" si="6"/>
         <v>0.19732291272460753</v>
       </c>
-      <c r="M6" s="389">
+      <c r="M6" s="350">
         <v>6178762500</v>
       </c>
     </row>
@@ -24761,10 +24745,10 @@
       <c r="C7" s="326">
         <v>4</v>
       </c>
-      <c r="D7" s="397">
+      <c r="D7" s="358">
         <v>198.86666666666667</v>
       </c>
-      <c r="E7" s="398">
+      <c r="E7" s="359">
         <v>1192.82</v>
       </c>
       <c r="F7" s="119">
@@ -24775,27 +24759,27 @@
         <f t="shared" si="1"/>
         <v>194.83613333333332</v>
       </c>
-      <c r="H7" s="384">
+      <c r="H7" s="345">
         <f t="shared" si="2"/>
         <v>27.833733333333328</v>
       </c>
-      <c r="I7" s="384">
+      <c r="I7" s="345">
         <f t="shared" si="3"/>
         <v>41.750599999999991</v>
       </c>
-      <c r="J7" s="393">
+      <c r="J7" s="354">
         <f t="shared" si="4"/>
         <v>6.7340625000000003</v>
       </c>
-      <c r="K7" s="396">
+      <c r="K7" s="357">
         <f t="shared" si="5"/>
         <v>0.24193888830340168</v>
       </c>
-      <c r="L7" s="396">
+      <c r="L7" s="357">
         <f t="shared" si="6"/>
         <v>0.1612925922022678</v>
       </c>
-      <c r="M7" s="389">
+      <c r="M7" s="350">
         <v>6734062500</v>
       </c>
     </row>
@@ -24803,10 +24787,10 @@
       <c r="C8" s="326">
         <v>5</v>
       </c>
-      <c r="D8" s="397">
+      <c r="D8" s="358">
         <v>248.58333333333334</v>
       </c>
-      <c r="E8" s="398">
+      <c r="E8" s="359">
         <v>1491.0249999999999</v>
       </c>
       <c r="F8" s="119">
@@ -24817,27 +24801,27 @@
         <f t="shared" si="1"/>
         <v>243.54516666666663</v>
       </c>
-      <c r="H8" s="384">
+      <c r="H8" s="345">
         <f t="shared" si="2"/>
         <v>34.792166666666667</v>
       </c>
-      <c r="I8" s="384">
+      <c r="I8" s="345">
         <f t="shared" si="3"/>
         <v>52.188249999999989</v>
       </c>
-      <c r="J8" s="393">
+      <c r="J8" s="354">
         <f t="shared" si="4"/>
         <v>7.3397625</v>
       </c>
-      <c r="K8" s="396">
+      <c r="K8" s="357">
         <f t="shared" si="5"/>
         <v>0.21096020176955541</v>
       </c>
-      <c r="L8" s="396">
+      <c r="L8" s="357">
         <f t="shared" si="6"/>
         <v>0.14064013451303697</v>
       </c>
-      <c r="M8" s="389">
+      <c r="M8" s="350">
         <v>7339762500</v>
       </c>
     </row>
@@ -24845,10 +24829,10 @@
       <c r="C9" s="326">
         <v>6</v>
       </c>
-      <c r="D9" s="397">
+      <c r="D9" s="358">
         <v>298.3</v>
       </c>
-      <c r="E9" s="398">
+      <c r="E9" s="359">
         <v>1789.2299999999998</v>
       </c>
       <c r="F9" s="119">
@@ -24859,27 +24843,27 @@
         <f t="shared" si="1"/>
         <v>292.25419999999991</v>
       </c>
-      <c r="H9" s="384">
+      <c r="H9" s="345">
         <f t="shared" si="2"/>
         <v>41.750599999999991</v>
       </c>
-      <c r="I9" s="384">
+      <c r="I9" s="345">
         <f t="shared" si="3"/>
         <v>62.625899999999994</v>
       </c>
-      <c r="J9" s="393">
+      <c r="J9" s="354">
         <f t="shared" si="4"/>
         <v>7.9994624999999999</v>
       </c>
-      <c r="K9" s="396">
+      <c r="K9" s="357">
         <f t="shared" si="5"/>
         <v>0.19160113866627071</v>
       </c>
-      <c r="L9" s="396">
+      <c r="L9" s="357">
         <f t="shared" si="6"/>
         <v>0.12773409244418046</v>
       </c>
-      <c r="M9" s="389">
+      <c r="M9" s="350">
         <v>7999462500</v>
       </c>
     </row>
@@ -24887,10 +24871,10 @@
       <c r="C10" s="326">
         <v>7</v>
       </c>
-      <c r="D10" s="397">
+      <c r="D10" s="358">
         <v>348.01666666666665</v>
       </c>
-      <c r="E10" s="398">
+      <c r="E10" s="359">
         <v>2087.4349999999999</v>
       </c>
       <c r="F10" s="119">
@@ -24901,50 +24885,50 @@
         <f t="shared" si="1"/>
         <v>340.96323333333339</v>
       </c>
-      <c r="H10" s="384">
+      <c r="H10" s="345">
         <f t="shared" si="2"/>
         <v>48.709033333333338</v>
       </c>
-      <c r="I10" s="384">
+      <c r="I10" s="345">
         <f t="shared" si="3"/>
         <v>73.063550000000006</v>
       </c>
-      <c r="J10" s="393">
+      <c r="J10" s="354">
         <f t="shared" si="4"/>
         <v>8.7185625000000009</v>
       </c>
-      <c r="K10" s="396">
+      <c r="K10" s="357">
         <f t="shared" si="5"/>
         <v>0.1789927227735307</v>
       </c>
-      <c r="L10" s="396">
+      <c r="L10" s="357">
         <f t="shared" si="6"/>
         <v>0.11932848184902048</v>
       </c>
-      <c r="M10" s="389">
+      <c r="M10" s="350">
         <v>8718562500</v>
       </c>
       <c r="P10" s="328" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q10" s="328" t="s">
         <v>383</v>
       </c>
-      <c r="Q10" s="328" t="s">
-        <v>384</v>
-      </c>
       <c r="R10" s="328" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S10" s="328" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="3:19" ht="15.75" thickBot="1">
       <c r="C11" s="326">
         <v>8</v>
       </c>
-      <c r="D11" s="397">
+      <c r="D11" s="358">
         <v>397.73333333333335</v>
       </c>
-      <c r="E11" s="398">
+      <c r="E11" s="359">
         <v>2385.64</v>
       </c>
       <c r="F11" s="119">
@@ -24955,41 +24939,41 @@
         <f t="shared" si="1"/>
         <v>389.67226666666664</v>
       </c>
-      <c r="H11" s="384">
+      <c r="H11" s="345">
         <f t="shared" si="2"/>
         <v>55.667466666666655</v>
       </c>
-      <c r="I11" s="384">
+      <c r="I11" s="345">
         <f t="shared" si="3"/>
         <v>83.501199999999983</v>
       </c>
-      <c r="J11" s="393">
+      <c r="J11" s="354">
         <f t="shared" si="4"/>
         <v>9.5024625</v>
       </c>
-      <c r="K11" s="396">
+      <c r="K11" s="357">
         <f t="shared" si="5"/>
         <v>0.17070046598132724</v>
       </c>
-      <c r="L11" s="396">
+      <c r="L11" s="357">
         <f t="shared" si="6"/>
         <v>0.11380031065421817</v>
       </c>
-      <c r="M11" s="389">
+      <c r="M11" s="350">
         <v>9502462500</v>
       </c>
       <c r="P11" s="328">
         <v>3.75</v>
       </c>
-      <c r="Q11" s="387">
+      <c r="Q11" s="348">
         <f>P11*693.5</f>
         <v>2600.625</v>
       </c>
-      <c r="R11" s="386">
+      <c r="R11" s="347">
         <f>Q11/H4</f>
         <v>373.73714389733328</v>
       </c>
-      <c r="S11" s="386">
+      <c r="S11" s="347">
         <f>Q11/I4</f>
         <v>249.15809593155552</v>
       </c>
@@ -24998,10 +24982,10 @@
       <c r="C12" s="326">
         <v>9</v>
       </c>
-      <c r="D12" s="397">
+      <c r="D12" s="358">
         <v>447.45000000000005</v>
       </c>
-      <c r="E12" s="398">
+      <c r="E12" s="359">
         <v>2683.8449999999998</v>
       </c>
       <c r="F12" s="119">
@@ -25012,41 +24996,41 @@
         <f t="shared" si="1"/>
         <v>438.38130000000001</v>
       </c>
-      <c r="H12" s="384">
+      <c r="H12" s="345">
         <f t="shared" si="2"/>
         <v>62.625900000000001</v>
       </c>
-      <c r="I12" s="384">
+      <c r="I12" s="345">
         <f t="shared" si="3"/>
         <v>93.938850000000002</v>
       </c>
-      <c r="J12" s="393">
+      <c r="J12" s="354">
         <f t="shared" si="4"/>
         <v>10.3574625</v>
       </c>
-      <c r="K12" s="396">
+      <c r="K12" s="357">
         <f t="shared" si="5"/>
         <v>0.16538624594616605</v>
       </c>
-      <c r="L12" s="396">
+      <c r="L12" s="357">
         <f t="shared" si="6"/>
         <v>0.11025749729744404</v>
       </c>
-      <c r="M12" s="389">
+      <c r="M12" s="350">
         <v>10357462500</v>
       </c>
-      <c r="P12" s="388">
+      <c r="P12" s="349">
         <v>7.5</v>
       </c>
-      <c r="Q12" s="389">
+      <c r="Q12" s="350">
         <f t="shared" ref="Q12:Q15" si="7">P12*693.5</f>
         <v>5201.25</v>
       </c>
-      <c r="R12" s="390">
+      <c r="R12" s="351">
         <f>Q12/H4</f>
         <v>747.47428779466657</v>
       </c>
-      <c r="S12" s="390">
+      <c r="S12" s="351">
         <f>Q12/I4</f>
         <v>498.31619186311104</v>
       </c>
@@ -25055,10 +25039,10 @@
       <c r="C13" s="326">
         <v>10</v>
       </c>
-      <c r="D13" s="397">
+      <c r="D13" s="358">
         <v>497.16666666666674</v>
       </c>
-      <c r="E13" s="398">
+      <c r="E13" s="359">
         <v>2982.0499999999997</v>
       </c>
       <c r="F13" s="119">
@@ -25069,41 +25053,41 @@
         <f t="shared" si="1"/>
         <v>487.09033333333326</v>
       </c>
-      <c r="H13" s="384">
+      <c r="H13" s="345">
         <f t="shared" si="2"/>
         <v>69.584333333333333</v>
       </c>
-      <c r="I13" s="384">
+      <c r="I13" s="345">
         <f t="shared" si="3"/>
         <v>104.37649999999998</v>
       </c>
-      <c r="J13" s="393">
+      <c r="J13" s="354">
         <f t="shared" si="4"/>
         <v>11.2889625</v>
       </c>
-      <c r="K13" s="396">
+      <c r="K13" s="357">
         <f t="shared" si="5"/>
         <v>0.16223425531609126</v>
       </c>
-      <c r="L13" s="396">
+      <c r="L13" s="357">
         <f t="shared" si="6"/>
         <v>0.10815617021072753</v>
       </c>
-      <c r="M13" s="389">
+      <c r="M13" s="350">
         <v>11288962500</v>
       </c>
       <c r="P13" s="328">
         <v>11.25</v>
       </c>
-      <c r="Q13" s="387">
+      <c r="Q13" s="348">
         <f>P13*693.5</f>
         <v>7801.875</v>
       </c>
-      <c r="R13" s="386">
+      <c r="R13" s="347">
         <f>Q13/H4</f>
         <v>1121.2114316919999</v>
       </c>
-      <c r="S13" s="386">
+      <c r="S13" s="347">
         <f>Q13/I4</f>
         <v>747.47428779466657</v>
       </c>
@@ -25112,10 +25096,10 @@
       <c r="C14" s="326">
         <v>11</v>
       </c>
-      <c r="D14" s="397">
+      <c r="D14" s="358">
         <v>546.88333333333344</v>
       </c>
-      <c r="E14" s="398">
+      <c r="E14" s="359">
         <v>3280.2549999999997</v>
       </c>
       <c r="F14" s="119">
@@ -25126,41 +25110,41 @@
         <f t="shared" si="1"/>
         <v>535.79936666666674</v>
       </c>
-      <c r="H14" s="384">
+      <c r="H14" s="345">
         <f t="shared" si="2"/>
         <v>76.542766666666665</v>
       </c>
-      <c r="I14" s="384">
+      <c r="I14" s="345">
         <f t="shared" si="3"/>
         <v>114.81415</v>
       </c>
-      <c r="J14" s="393">
+      <c r="J14" s="354">
         <f t="shared" si="4"/>
         <v>12.3041625</v>
       </c>
-      <c r="K14" s="396">
+      <c r="K14" s="357">
         <f t="shared" si="5"/>
         <v>0.16074886022323903</v>
       </c>
-      <c r="L14" s="396">
+      <c r="L14" s="357">
         <f t="shared" si="6"/>
         <v>0.10716590681549269</v>
       </c>
-      <c r="M14" s="389">
+      <c r="M14" s="350">
         <v>12304162500</v>
       </c>
       <c r="P14" s="328">
         <v>15</v>
       </c>
-      <c r="Q14" s="387">
+      <c r="Q14" s="348">
         <f t="shared" si="7"/>
         <v>10402.5</v>
       </c>
-      <c r="R14" s="386">
+      <c r="R14" s="347">
         <f>Q14/H4</f>
         <v>1494.9485755893331</v>
       </c>
-      <c r="S14" s="386">
+      <c r="S14" s="347">
         <f>Q14/I4</f>
         <v>996.63238372622209</v>
       </c>
@@ -25169,10 +25153,10 @@
       <c r="C15" s="326">
         <v>12</v>
       </c>
-      <c r="D15" s="397">
+      <c r="D15" s="358">
         <v>596.60000000000014</v>
       </c>
-      <c r="E15" s="398">
+      <c r="E15" s="359">
         <v>3578.4599999999996</v>
       </c>
       <c r="F15" s="119">
@@ -25183,41 +25167,41 @@
         <f t="shared" si="1"/>
         <v>584.50839999999982</v>
       </c>
-      <c r="H15" s="384">
+      <c r="H15" s="345">
         <f t="shared" si="2"/>
         <v>83.501199999999983</v>
       </c>
-      <c r="I15" s="384">
+      <c r="I15" s="345">
         <f t="shared" si="3"/>
         <v>125.25179999999999</v>
       </c>
-      <c r="J15" s="393">
+      <c r="J15" s="354">
         <f t="shared" si="4"/>
         <v>13.4111625</v>
       </c>
-      <c r="K15" s="396">
+      <c r="K15" s="357">
         <f t="shared" si="5"/>
         <v>0.16061041637724971</v>
       </c>
-      <c r="L15" s="396">
+      <c r="L15" s="357">
         <f t="shared" si="6"/>
         <v>0.10707361091816646</v>
       </c>
-      <c r="M15" s="389">
+      <c r="M15" s="350">
         <v>13411162500</v>
       </c>
       <c r="P15" s="328">
         <v>18.75</v>
       </c>
-      <c r="Q15" s="387">
+      <c r="Q15" s="348">
         <f t="shared" si="7"/>
         <v>13003.125</v>
       </c>
-      <c r="R15" s="386">
+      <c r="R15" s="347">
         <f>Q15/H4</f>
         <v>1868.6857194866664</v>
       </c>
-      <c r="S15" s="386">
+      <c r="S15" s="347">
         <f>Q15/I4</f>
         <v>1245.7904796577777</v>
       </c>
@@ -25226,10 +25210,10 @@
       <c r="C16" s="326">
         <v>13</v>
       </c>
-      <c r="D16" s="397">
+      <c r="D16" s="358">
         <v>646.31666666666683</v>
       </c>
-      <c r="E16" s="398">
+      <c r="E16" s="359">
         <v>3876.6649999999995</v>
       </c>
       <c r="F16" s="119">
@@ -25240,41 +25224,41 @@
         <f t="shared" si="1"/>
         <v>633.21743333333336</v>
       </c>
-      <c r="H16" s="384">
+      <c r="H16" s="345">
         <f t="shared" si="2"/>
         <v>90.459633333333329</v>
       </c>
-      <c r="I16" s="384">
+      <c r="I16" s="345">
         <f t="shared" si="3"/>
         <v>135.68944999999999</v>
       </c>
-      <c r="J16" s="393">
+      <c r="J16" s="354">
         <f t="shared" si="4"/>
         <v>14.618062500000001</v>
       </c>
-      <c r="K16" s="396">
+      <c r="K16" s="357">
         <f t="shared" si="5"/>
         <v>0.16159763157710494</v>
       </c>
-      <c r="L16" s="396">
+      <c r="L16" s="357">
         <f t="shared" si="6"/>
         <v>0.10773175438473663</v>
       </c>
-      <c r="M16" s="389">
+      <c r="M16" s="350">
         <v>14618062500</v>
       </c>
       <c r="P16" s="328">
         <v>22.5</v>
       </c>
-      <c r="Q16" s="387">
+      <c r="Q16" s="348">
         <f>P16*693.5</f>
         <v>15603.75</v>
       </c>
-      <c r="R16" s="386">
+      <c r="R16" s="347">
         <f>Q16/H4</f>
         <v>2242.4228633839998</v>
       </c>
-      <c r="S16" s="386">
+      <c r="S16" s="347">
         <f>Q16/I4</f>
         <v>1494.9485755893331</v>
       </c>
@@ -25283,10 +25267,10 @@
       <c r="C17" s="326">
         <v>14</v>
       </c>
-      <c r="D17" s="397">
+      <c r="D17" s="358">
         <v>696.03333333333353</v>
       </c>
-      <c r="E17" s="398">
+      <c r="E17" s="359">
         <v>4174.87</v>
       </c>
       <c r="F17" s="119">
@@ -25297,27 +25281,27 @@
         <f t="shared" si="1"/>
         <v>681.92646666666678</v>
       </c>
-      <c r="H17" s="384">
+      <c r="H17" s="345">
         <f t="shared" si="2"/>
         <v>97.418066666666675</v>
       </c>
-      <c r="I17" s="384">
+      <c r="I17" s="345">
         <f t="shared" si="3"/>
         <v>146.12710000000001</v>
       </c>
-      <c r="J17" s="393">
+      <c r="J17" s="354">
         <f t="shared" si="4"/>
         <v>15.9329625</v>
       </c>
-      <c r="K17" s="396">
+      <c r="K17" s="357">
         <f t="shared" si="5"/>
         <v>0.16355243996493463</v>
       </c>
-      <c r="L17" s="396">
+      <c r="L17" s="357">
         <f t="shared" si="6"/>
         <v>0.10903495997662309</v>
       </c>
-      <c r="M17" s="389">
+      <c r="M17" s="350">
         <v>15932962500</v>
       </c>
     </row>
@@ -25325,10 +25309,10 @@
       <c r="C18" s="326">
         <v>15</v>
       </c>
-      <c r="D18" s="397">
+      <c r="D18" s="358">
         <v>745.75000000000023</v>
       </c>
-      <c r="E18" s="398">
+      <c r="E18" s="359">
         <v>4473.0749999999998</v>
       </c>
       <c r="F18" s="119">
@@ -25339,27 +25323,27 @@
         <f t="shared" si="1"/>
         <v>730.63549999999998</v>
       </c>
-      <c r="H18" s="384">
+      <c r="H18" s="345">
         <f t="shared" si="2"/>
         <v>104.37649999999999</v>
       </c>
-      <c r="I18" s="384">
+      <c r="I18" s="345">
         <f t="shared" si="3"/>
         <v>156.56475</v>
       </c>
-      <c r="J18" s="393">
+      <c r="J18" s="354">
         <f t="shared" si="4"/>
         <v>17.3666625</v>
       </c>
-      <c r="K18" s="396">
+      <c r="K18" s="357">
         <f t="shared" si="5"/>
         <v>0.16638479447001961</v>
       </c>
-      <c r="L18" s="396">
+      <c r="L18" s="357">
         <f t="shared" si="6"/>
         <v>0.11092319631334639</v>
       </c>
-      <c r="M18" s="389">
+      <c r="M18" s="350">
         <v>17366662500</v>
       </c>
     </row>
@@ -25367,10 +25351,10 @@
       <c r="C19" s="326">
         <v>16</v>
       </c>
-      <c r="D19" s="397">
+      <c r="D19" s="358">
         <v>795.46666666666692</v>
       </c>
-      <c r="E19" s="398">
+      <c r="E19" s="359">
         <v>4771.28</v>
       </c>
       <c r="F19" s="119">
@@ -25381,27 +25365,27 @@
         <f t="shared" si="1"/>
         <v>779.3445333333334</v>
       </c>
-      <c r="H19" s="384">
+      <c r="H19" s="345">
         <f t="shared" si="2"/>
         <v>111.33493333333334</v>
       </c>
-      <c r="I19" s="384">
+      <c r="I19" s="345">
         <f t="shared" si="3"/>
         <v>167.00239999999999</v>
       </c>
-      <c r="J19" s="393">
+      <c r="J19" s="354">
         <f t="shared" si="4"/>
         <v>18.929062500000001</v>
       </c>
-      <c r="K19" s="396">
+      <c r="K19" s="357">
         <f t="shared" si="5"/>
         <v>0.17001907607315822</v>
       </c>
-      <c r="L19" s="396">
+      <c r="L19" s="357">
         <f t="shared" si="6"/>
         <v>0.11334605071543882</v>
       </c>
-      <c r="M19" s="389">
+      <c r="M19" s="350">
         <v>18929062500</v>
       </c>
     </row>
@@ -25409,10 +25393,10 @@
       <c r="C20" s="326">
         <v>17</v>
       </c>
-      <c r="D20" s="397">
+      <c r="D20" s="358">
         <v>845.18333333333362</v>
       </c>
-      <c r="E20" s="398">
+      <c r="E20" s="359">
         <v>5069.4849999999997</v>
       </c>
       <c r="F20" s="119">
@@ -25423,27 +25407,27 @@
         <f t="shared" si="1"/>
         <v>828.0535666666666</v>
       </c>
-      <c r="H20" s="384">
+      <c r="H20" s="345">
         <f t="shared" si="2"/>
         <v>118.29336666666666</v>
       </c>
-      <c r="I20" s="384">
+      <c r="I20" s="345">
         <f t="shared" si="3"/>
         <v>177.44005000000001</v>
       </c>
-      <c r="J20" s="393">
+      <c r="J20" s="354">
         <f t="shared" si="4"/>
         <v>20.6318625</v>
       </c>
-      <c r="K20" s="396">
+      <c r="K20" s="357">
         <f t="shared" si="5"/>
         <v>0.17441267487244286</v>
       </c>
-      <c r="L20" s="396">
+      <c r="L20" s="357">
         <f t="shared" si="6"/>
         <v>0.11627511658162855</v>
       </c>
-      <c r="M20" s="389">
+      <c r="M20" s="350">
         <v>20631862500</v>
       </c>
     </row>
@@ -25451,10 +25435,10 @@
       <c r="C21" s="326">
         <v>18</v>
       </c>
-      <c r="D21" s="397">
+      <c r="D21" s="358">
         <v>894.90000000000032</v>
       </c>
-      <c r="E21" s="398">
+      <c r="E21" s="359">
         <v>5367.69</v>
       </c>
       <c r="F21" s="119">
@@ -25465,27 +25449,27 @@
         <f t="shared" si="1"/>
         <v>876.76260000000002</v>
       </c>
-      <c r="H21" s="384">
+      <c r="H21" s="345">
         <f t="shared" si="2"/>
         <v>125.2518</v>
       </c>
-      <c r="I21" s="384">
+      <c r="I21" s="345">
         <f t="shared" si="3"/>
         <v>187.8777</v>
       </c>
-      <c r="J21" s="393">
+      <c r="J21" s="354">
         <f t="shared" si="4"/>
         <v>22.4885625</v>
       </c>
-      <c r="K21" s="396">
+      <c r="K21" s="357">
         <f t="shared" si="5"/>
         <v>0.17954682088401125</v>
       </c>
-      <c r="L21" s="396">
+      <c r="L21" s="357">
         <f t="shared" si="6"/>
         <v>0.11969788058934083</v>
       </c>
-      <c r="M21" s="389">
+      <c r="M21" s="350">
         <v>22488562500</v>
       </c>
     </row>
@@ -25493,10 +25477,10 @@
       <c r="C22" s="326">
         <v>19</v>
       </c>
-      <c r="D22" s="397">
+      <c r="D22" s="358">
         <v>944.61666666666702</v>
       </c>
-      <c r="E22" s="398">
+      <c r="E22" s="359">
         <v>5665.8949999999995</v>
       </c>
       <c r="F22" s="119">
@@ -25507,27 +25491,27 @@
         <f t="shared" si="1"/>
         <v>925.47163333333322</v>
       </c>
-      <c r="H22" s="384">
+      <c r="H22" s="345">
         <f t="shared" si="2"/>
         <v>132.21023333333332</v>
       </c>
-      <c r="I22" s="384">
+      <c r="I22" s="345">
         <f t="shared" si="3"/>
         <v>198.31535</v>
       </c>
-      <c r="J22" s="393">
+      <c r="J22" s="354">
         <f t="shared" si="4"/>
         <v>24.5117625</v>
       </c>
-      <c r="K22" s="396">
+      <c r="K22" s="357">
         <f t="shared" si="5"/>
         <v>0.18539988835962523</v>
       </c>
-      <c r="L22" s="396">
+      <c r="L22" s="357">
         <f t="shared" si="6"/>
         <v>0.12359992557308348</v>
       </c>
-      <c r="M22" s="389">
+      <c r="M22" s="350">
         <v>24511762500</v>
       </c>
     </row>
@@ -25535,10 +25519,10 @@
       <c r="C23" s="326">
         <v>20</v>
       </c>
-      <c r="D23" s="397">
+      <c r="D23" s="358">
         <v>994.33333333333371</v>
       </c>
-      <c r="E23" s="398">
+      <c r="E23" s="359">
         <v>5964.0999999999995</v>
       </c>
       <c r="F23" s="119">
@@ -25549,27 +25533,27 @@
         <f t="shared" si="1"/>
         <v>974.18066666666664</v>
       </c>
-      <c r="H23" s="384">
+      <c r="H23" s="345">
         <f t="shared" si="2"/>
         <v>139.16866666666667</v>
       </c>
-      <c r="I23" s="384">
+      <c r="I23" s="345">
         <f t="shared" si="3"/>
         <v>208.75299999999999</v>
       </c>
-      <c r="J23" s="393">
+      <c r="J23" s="354">
         <f t="shared" si="4"/>
         <v>26.717662499999999</v>
       </c>
-      <c r="K23" s="396">
+      <c r="K23" s="357">
         <f t="shared" si="5"/>
         <v>0.19198044459241304</v>
       </c>
-      <c r="L23" s="396">
+      <c r="L23" s="357">
         <f t="shared" si="6"/>
         <v>0.1279869630616087</v>
       </c>
-      <c r="M23" s="389">
+      <c r="M23" s="350">
         <v>26717662500</v>
       </c>
     </row>
@@ -25577,10 +25561,10 @@
       <c r="C24" s="326">
         <v>21</v>
       </c>
-      <c r="D24" s="397">
+      <c r="D24" s="358">
         <v>1044.0500000000004</v>
       </c>
-      <c r="E24" s="398">
+      <c r="E24" s="359">
         <v>6262.3049999999994</v>
       </c>
       <c r="F24" s="119">
@@ -25591,27 +25575,27 @@
         <f t="shared" si="1"/>
         <v>1022.8896999999998</v>
       </c>
-      <c r="H24" s="384">
+      <c r="H24" s="345">
         <f t="shared" si="2"/>
         <v>146.12710000000001</v>
       </c>
-      <c r="I24" s="384">
+      <c r="I24" s="345">
         <f t="shared" si="3"/>
         <v>219.19065000000001</v>
       </c>
-      <c r="J24" s="393">
+      <c r="J24" s="354">
         <f t="shared" si="4"/>
         <v>29.1215625</v>
       </c>
-      <c r="K24" s="396">
+      <c r="K24" s="357">
         <f t="shared" si="5"/>
         <v>0.19928926598830743</v>
       </c>
-      <c r="L24" s="396">
+      <c r="L24" s="357">
         <f t="shared" si="6"/>
         <v>0.13285951065887161</v>
       </c>
-      <c r="M24" s="389">
+      <c r="M24" s="350">
         <v>29121562500</v>
       </c>
     </row>
@@ -25619,10 +25603,10 @@
       <c r="C25" s="326">
         <v>22</v>
       </c>
-      <c r="D25" s="397">
+      <c r="D25" s="358">
         <v>1093.7666666666671</v>
       </c>
-      <c r="E25" s="398">
+      <c r="E25" s="359">
         <v>6560.5099999999993</v>
       </c>
       <c r="F25" s="119">
@@ -25633,27 +25617,27 @@
         <f t="shared" si="1"/>
         <v>1071.5987333333335</v>
       </c>
-      <c r="H25" s="384">
+      <c r="H25" s="345">
         <f t="shared" si="2"/>
         <v>153.08553333333333</v>
       </c>
-      <c r="I25" s="384">
+      <c r="I25" s="345">
         <f t="shared" si="3"/>
         <v>229.6283</v>
       </c>
-      <c r="J25" s="393">
+      <c r="J25" s="354">
         <f t="shared" si="4"/>
         <v>31.273462500000001</v>
       </c>
-      <c r="K25" s="396">
+      <c r="K25" s="357">
         <f t="shared" si="5"/>
         <v>0.20428751051155281</v>
       </c>
-      <c r="L25" s="396">
+      <c r="L25" s="357">
         <f t="shared" si="6"/>
         <v>0.13619167367436855</v>
       </c>
-      <c r="M25" s="389">
+      <c r="M25" s="350">
         <v>31273462500</v>
       </c>
       <c r="P25">
@@ -25664,10 +25648,10 @@
       <c r="C26" s="326">
         <v>23</v>
       </c>
-      <c r="D26" s="397">
+      <c r="D26" s="358">
         <v>1143.4833333333338</v>
       </c>
-      <c r="E26" s="398">
+      <c r="E26" s="359">
         <v>6858.7149999999992</v>
       </c>
       <c r="F26" s="119">
@@ -25678,27 +25662,27 @@
         <f t="shared" si="1"/>
         <v>1120.3077666666666</v>
       </c>
-      <c r="H26" s="384">
+      <c r="H26" s="345">
         <f t="shared" si="2"/>
         <v>160.04396666666665</v>
       </c>
-      <c r="I26" s="384">
+      <c r="I26" s="345">
         <f t="shared" si="3"/>
         <v>240.06594999999996</v>
       </c>
-      <c r="J26" s="393">
+      <c r="J26" s="354">
         <f t="shared" si="4"/>
         <v>33.578362499999997</v>
       </c>
-      <c r="K26" s="396">
+      <c r="K26" s="357">
         <f t="shared" si="5"/>
         <v>0.20980711237891089</v>
       </c>
-      <c r="L26" s="396">
+      <c r="L26" s="357">
         <f t="shared" si="6"/>
         <v>0.13987140825260727</v>
       </c>
-      <c r="M26" s="389">
+      <c r="M26" s="350">
         <v>33578362500</v>
       </c>
     </row>
@@ -25706,10 +25690,10 @@
       <c r="C27" s="326">
         <v>24</v>
       </c>
-      <c r="D27" s="397">
+      <c r="D27" s="358">
         <v>1193.2000000000005</v>
       </c>
-      <c r="E27" s="398">
+      <c r="E27" s="359">
         <v>7156.9199999999992</v>
       </c>
       <c r="F27" s="119">
@@ -25720,27 +25704,27 @@
         <f t="shared" si="1"/>
         <v>1169.0167999999996</v>
       </c>
-      <c r="H27" s="384">
+      <c r="H27" s="345">
         <f t="shared" si="2"/>
         <v>167.00239999999997</v>
       </c>
-      <c r="I27" s="384">
+      <c r="I27" s="345">
         <f t="shared" si="3"/>
         <v>250.50359999999998</v>
       </c>
-      <c r="J27" s="393">
+      <c r="J27" s="354">
         <f t="shared" si="4"/>
         <v>36.044362499999998</v>
       </c>
-      <c r="K27" s="396">
+      <c r="K27" s="357">
         <f t="shared" si="5"/>
         <v>0.21583140421934061</v>
       </c>
-      <c r="L27" s="396">
+      <c r="L27" s="357">
         <f t="shared" si="6"/>
         <v>0.1438876028128937</v>
       </c>
-      <c r="M27" s="389">
+      <c r="M27" s="350">
         <v>36044362500</v>
       </c>
     </row>
@@ -25748,10 +25732,10 @@
       <c r="C28" s="326">
         <v>25</v>
       </c>
-      <c r="D28" s="397">
+      <c r="D28" s="358">
         <v>1242.9166666666672</v>
       </c>
-      <c r="E28" s="398">
+      <c r="E28" s="359">
         <v>7455.1249999999991</v>
       </c>
       <c r="F28" s="119">
@@ -25762,27 +25746,27 @@
         <f t="shared" si="1"/>
         <v>1217.7258333333332</v>
       </c>
-      <c r="H28" s="384">
+      <c r="H28" s="345">
         <f t="shared" si="2"/>
         <v>173.96083333333331</v>
       </c>
-      <c r="I28" s="384">
+      <c r="I28" s="345">
         <f t="shared" si="3"/>
         <v>260.94124999999997</v>
       </c>
-      <c r="J28" s="393">
+      <c r="J28" s="354">
         <f t="shared" si="4"/>
         <v>38.6822625</v>
       </c>
-      <c r="K28" s="396">
+      <c r="K28" s="357">
         <f t="shared" si="5"/>
         <v>0.22236190617619869</v>
       </c>
-      <c r="L28" s="396">
+      <c r="L28" s="357">
         <f t="shared" si="6"/>
         <v>0.14824127078413246</v>
       </c>
-      <c r="M28" s="389">
+      <c r="M28" s="350">
         <v>38682262500</v>
       </c>
     </row>
@@ -25790,10 +25774,10 @@
       <c r="C29" s="326">
         <v>26</v>
       </c>
-      <c r="D29" s="397">
+      <c r="D29" s="358">
         <v>1292.6333333333339</v>
       </c>
-      <c r="E29" s="398">
+      <c r="E29" s="359">
         <v>7753.329999999999</v>
       </c>
       <c r="F29" s="119">
@@ -25804,27 +25788,27 @@
         <f t="shared" si="1"/>
         <v>1266.4348666666667</v>
       </c>
-      <c r="H29" s="384">
+      <c r="H29" s="345">
         <f t="shared" si="2"/>
         <v>180.91926666666666</v>
       </c>
-      <c r="I29" s="384">
+      <c r="I29" s="345">
         <f t="shared" si="3"/>
         <v>271.37889999999999</v>
       </c>
-      <c r="J29" s="393">
+      <c r="J29" s="354">
         <f t="shared" si="4"/>
         <v>41.503762500000001</v>
       </c>
-      <c r="K29" s="396">
+      <c r="K29" s="357">
         <f t="shared" si="5"/>
         <v>0.2294048791191946</v>
       </c>
-      <c r="L29" s="396">
+      <c r="L29" s="357">
         <f t="shared" si="6"/>
         <v>0.15293658607946309</v>
       </c>
-      <c r="M29" s="389">
+      <c r="M29" s="350">
         <v>41503762500</v>
       </c>
       <c r="Q29" s="344">
@@ -25838,10 +25822,10 @@
       <c r="C30" s="326">
         <v>27</v>
       </c>
-      <c r="D30" s="397">
+      <c r="D30" s="358">
         <v>1342.3500000000006</v>
       </c>
-      <c r="E30" s="398">
+      <c r="E30" s="359">
         <v>8051.5349999999989</v>
       </c>
       <c r="F30" s="119">
@@ -25852,27 +25836,27 @@
         <f t="shared" si="1"/>
         <v>1315.1439</v>
       </c>
-      <c r="H30" s="384">
+      <c r="H30" s="345">
         <f t="shared" si="2"/>
         <v>187.8777</v>
       </c>
-      <c r="I30" s="384">
+      <c r="I30" s="345">
         <f t="shared" si="3"/>
         <v>281.81655000000001</v>
       </c>
-      <c r="J30" s="393">
+      <c r="J30" s="354">
         <f t="shared" si="4"/>
         <v>44.519662500000003</v>
       </c>
-      <c r="K30" s="396">
+      <c r="K30" s="357">
         <f t="shared" si="5"/>
         <v>0.23696086603146621</v>
       </c>
-      <c r="L30" s="396">
+      <c r="L30" s="357">
         <f t="shared" si="6"/>
         <v>0.15797391068764416</v>
       </c>
-      <c r="M30" s="389">
+      <c r="M30" s="350">
         <v>44519662500</v>
       </c>
       <c r="Q30" s="344">
@@ -25887,10 +25871,10 @@
       <c r="C31" s="326">
         <v>28</v>
       </c>
-      <c r="D31" s="397">
+      <c r="D31" s="358">
         <v>1392.0666666666673</v>
       </c>
-      <c r="E31" s="398">
+      <c r="E31" s="359">
         <v>8349.74</v>
       </c>
       <c r="F31" s="119">
@@ -25901,27 +25885,27 @@
         <f t="shared" si="1"/>
         <v>1363.8529333333336</v>
       </c>
-      <c r="H31" s="384">
+      <c r="H31" s="345">
         <f t="shared" si="2"/>
         <v>194.83613333333335</v>
       </c>
-      <c r="I31" s="384">
+      <c r="I31" s="345">
         <f t="shared" si="3"/>
         <v>292.25420000000003</v>
       </c>
-      <c r="J31" s="393">
+      <c r="J31" s="354">
         <f t="shared" si="4"/>
         <v>47.741662499999997</v>
       </c>
-      <c r="K31" s="396">
+      <c r="K31" s="357">
         <f t="shared" si="5"/>
         <v>0.24503495159350999</v>
       </c>
-      <c r="L31" s="396">
+      <c r="L31" s="357">
         <f t="shared" si="6"/>
         <v>0.16335663439567333</v>
       </c>
-      <c r="M31" s="389">
+      <c r="M31" s="350">
         <v>47741662500</v>
       </c>
     </row>
@@ -25929,10 +25913,10 @@
       <c r="C32" s="326">
         <v>29</v>
       </c>
-      <c r="D32" s="397">
+      <c r="D32" s="358">
         <v>1441.783333333334</v>
       </c>
-      <c r="E32" s="398">
+      <c r="E32" s="359">
         <v>8647.9449999999997</v>
       </c>
       <c r="F32" s="119">
@@ -25943,27 +25927,27 @@
         <f t="shared" si="1"/>
         <v>1412.5619666666666</v>
       </c>
-      <c r="H32" s="384">
+      <c r="H32" s="345">
         <f t="shared" si="2"/>
         <v>201.7945666666667</v>
       </c>
-      <c r="I32" s="384">
+      <c r="I32" s="345">
         <f t="shared" si="3"/>
         <v>302.69185000000004</v>
       </c>
-      <c r="J32" s="393">
+      <c r="J32" s="354">
         <f t="shared" si="4"/>
         <v>51.183262499999998</v>
       </c>
-      <c r="K32" s="396">
+      <c r="K32" s="357">
         <f t="shared" si="5"/>
         <v>0.25364043911324335</v>
       </c>
-      <c r="L32" s="396">
+      <c r="L32" s="357">
         <f t="shared" si="6"/>
         <v>0.16909362607549555</v>
       </c>
-      <c r="M32" s="389">
+      <c r="M32" s="350">
         <v>51183262500</v>
       </c>
     </row>
@@ -25971,10 +25955,10 @@
       <c r="C33" s="326">
         <v>30</v>
       </c>
-      <c r="D33" s="397">
+      <c r="D33" s="358">
         <v>1491.5000000000007</v>
       </c>
-      <c r="E33" s="398">
+      <c r="E33" s="359">
         <v>8946.15</v>
       </c>
       <c r="F33" s="119">
@@ -25985,27 +25969,27 @@
         <f t="shared" si="1"/>
         <v>1461.271</v>
       </c>
-      <c r="H33" s="384">
+      <c r="H33" s="345">
         <f t="shared" si="2"/>
         <v>208.75299999999999</v>
       </c>
-      <c r="I33" s="384">
+      <c r="I33" s="345">
         <f t="shared" si="3"/>
         <v>313.12950000000001</v>
       </c>
-      <c r="J33" s="393">
+      <c r="J33" s="354">
         <f t="shared" si="4"/>
         <v>54.857962499999999</v>
       </c>
-      <c r="K33" s="396">
+      <c r="K33" s="357">
         <f t="shared" si="5"/>
         <v>0.26278885812419461</v>
       </c>
-      <c r="L33" s="396">
+      <c r="L33" s="357">
         <f t="shared" si="6"/>
         <v>0.1751925720827964</v>
       </c>
-      <c r="M33" s="389">
+      <c r="M33" s="350">
         <v>54857962500</v>
       </c>
     </row>
@@ -26013,10 +25997,10 @@
       <c r="C34" s="326">
         <v>31</v>
       </c>
-      <c r="D34" s="397">
+      <c r="D34" s="358">
         <v>1541.2166666666674</v>
       </c>
-      <c r="E34" s="398">
+      <c r="E34" s="359">
         <v>9244.3549999999996</v>
       </c>
       <c r="F34" s="119">
@@ -26027,27 +26011,27 @@
         <f t="shared" si="1"/>
         <v>1509.9800333333333</v>
       </c>
-      <c r="H34" s="384">
+      <c r="H34" s="345">
         <f t="shared" si="2"/>
         <v>215.71143333333333</v>
       </c>
-      <c r="I34" s="384">
+      <c r="I34" s="345">
         <f t="shared" si="3"/>
         <v>323.56715000000003</v>
       </c>
-      <c r="J34" s="393">
+      <c r="J34" s="354">
         <f t="shared" si="4"/>
         <v>58.779262500000002</v>
       </c>
-      <c r="K34" s="396">
+      <c r="K34" s="357">
         <f t="shared" si="5"/>
         <v>0.27249025047814651</v>
       </c>
-      <c r="L34" s="396">
+      <c r="L34" s="357">
         <f t="shared" si="6"/>
         <v>0.181660166985431</v>
       </c>
-      <c r="M34" s="389">
+      <c r="M34" s="350">
         <v>58779262500</v>
       </c>
     </row>
@@ -26055,10 +26039,10 @@
       <c r="C35" s="326">
         <v>32</v>
       </c>
-      <c r="D35" s="397">
+      <c r="D35" s="358">
         <v>1590.9333333333341</v>
       </c>
-      <c r="E35" s="398">
+      <c r="E35" s="359">
         <v>9542.56</v>
       </c>
       <c r="F35" s="119">
@@ -26069,27 +26053,27 @@
         <f t="shared" si="1"/>
         <v>1558.6890666666668</v>
       </c>
-      <c r="H35" s="384">
+      <c r="H35" s="345">
         <f t="shared" si="2"/>
         <v>222.66986666666668</v>
       </c>
-      <c r="I35" s="384">
+      <c r="I35" s="345">
         <f t="shared" si="3"/>
         <v>334.00479999999999</v>
       </c>
-      <c r="J35" s="393">
+      <c r="J35" s="354">
         <f t="shared" si="4"/>
         <v>62.961562499999999</v>
       </c>
-      <c r="K35" s="396">
+      <c r="K35" s="357">
         <f t="shared" si="5"/>
         <v>0.28275744465349001</v>
       </c>
-      <c r="L35" s="396">
+      <c r="L35" s="357">
         <f t="shared" si="6"/>
         <v>0.18850496310232667</v>
       </c>
-      <c r="M35" s="389">
+      <c r="M35" s="350">
         <v>62961562500</v>
       </c>
     </row>
@@ -26097,10 +26081,10 @@
       <c r="C36" s="326">
         <v>33</v>
       </c>
-      <c r="D36" s="397">
+      <c r="D36" s="358">
         <v>1640.6500000000008</v>
       </c>
-      <c r="E36" s="398">
+      <c r="E36" s="359">
         <v>9840.7649999999994</v>
       </c>
       <c r="F36" s="119">
@@ -26111,27 +26095,27 @@
         <f t="shared" si="1"/>
         <v>1607.3981000000003</v>
       </c>
-      <c r="H36" s="384">
+      <c r="H36" s="345">
         <f t="shared" si="2"/>
         <v>229.62830000000002</v>
       </c>
-      <c r="I36" s="384">
+      <c r="I36" s="345">
         <f t="shared" si="3"/>
         <v>344.44245000000001</v>
       </c>
-      <c r="J36" s="393">
+      <c r="J36" s="354">
         <f t="shared" si="4"/>
         <v>67.421062500000005</v>
       </c>
-      <c r="K36" s="396">
+      <c r="K36" s="357">
         <f t="shared" si="5"/>
         <v>0.29360955291660479</v>
       </c>
-      <c r="L36" s="396">
+      <c r="L36" s="357">
         <f t="shared" si="6"/>
         <v>0.19573970194440321</v>
       </c>
-      <c r="M36" s="389">
+      <c r="M36" s="350">
         <v>67421062500</v>
       </c>
     </row>
@@ -26139,10 +26123,10 @@
       <c r="C37" s="326">
         <v>34</v>
       </c>
-      <c r="D37" s="397">
+      <c r="D37" s="358">
         <v>1690.3666666666675</v>
       </c>
-      <c r="E37" s="398">
+      <c r="E37" s="359">
         <v>10138.969999999999</v>
       </c>
       <c r="F37" s="119">
@@ -26153,27 +26137,27 @@
         <f t="shared" si="1"/>
         <v>1656.1071333333332</v>
       </c>
-      <c r="H37" s="384">
+      <c r="H37" s="345">
         <f t="shared" si="2"/>
         <v>236.58673333333331</v>
       </c>
-      <c r="I37" s="384">
+      <c r="I37" s="345">
         <f t="shared" si="3"/>
         <v>354.88010000000003</v>
       </c>
-      <c r="J37" s="393">
+      <c r="J37" s="354">
         <f t="shared" si="4"/>
         <v>72.173962500000002</v>
       </c>
-      <c r="K37" s="396">
+      <c r="K37" s="357">
         <f t="shared" si="5"/>
         <v>0.3050634390319435</v>
       </c>
-      <c r="L37" s="396">
+      <c r="L37" s="357">
         <f t="shared" si="6"/>
         <v>0.20337562602129564</v>
       </c>
-      <c r="M37" s="389">
+      <c r="M37" s="350">
         <v>72173962500</v>
       </c>
     </row>
@@ -26181,10 +26165,10 @@
       <c r="C38" s="326">
         <v>35</v>
       </c>
-      <c r="D38" s="397">
+      <c r="D38" s="358">
         <v>1740.0833333333342</v>
       </c>
-      <c r="E38" s="398">
+      <c r="E38" s="359">
         <v>10437.174999999999</v>
       </c>
       <c r="F38" s="119">
@@ -26195,27 +26179,27 @@
         <f t="shared" si="1"/>
         <v>1704.8161666666667</v>
       </c>
-      <c r="H38" s="384">
+      <c r="H38" s="345">
         <f t="shared" si="2"/>
         <v>243.54516666666666</v>
       </c>
-      <c r="I38" s="384">
+      <c r="I38" s="345">
         <f t="shared" si="3"/>
         <v>365.31774999999999</v>
       </c>
-      <c r="J38" s="393">
+      <c r="J38" s="354">
         <f t="shared" si="4"/>
         <v>77.2355625</v>
       </c>
-      <c r="K38" s="396">
+      <c r="K38" s="357">
         <f t="shared" si="5"/>
         <v>0.31713034406348994</v>
       </c>
-      <c r="L38" s="396">
+      <c r="L38" s="357">
         <f t="shared" si="6"/>
         <v>0.21142022937565996</v>
       </c>
-      <c r="M38" s="389">
+      <c r="M38" s="350">
         <v>77235562500</v>
       </c>
     </row>
@@ -26223,10 +26207,10 @@
       <c r="C39" s="326">
         <v>36</v>
       </c>
-      <c r="D39" s="397">
+      <c r="D39" s="358">
         <v>1789.8000000000009</v>
       </c>
-      <c r="E39" s="398">
+      <c r="E39" s="359">
         <v>10735.38</v>
       </c>
       <c r="F39" s="119">
@@ -26237,27 +26221,27 @@
         <f t="shared" si="1"/>
         <v>1753.5252</v>
       </c>
-      <c r="H39" s="384">
+      <c r="H39" s="345">
         <f t="shared" si="2"/>
         <v>250.50360000000001</v>
       </c>
-      <c r="I39" s="384">
+      <c r="I39" s="345">
         <f t="shared" si="3"/>
         <v>375.75540000000001</v>
       </c>
-      <c r="J39" s="393">
+      <c r="J39" s="354">
         <f t="shared" si="4"/>
         <v>82.623862500000001</v>
       </c>
-      <c r="K39" s="396">
+      <c r="K39" s="357">
         <f t="shared" si="5"/>
         <v>0.32983103835633498</v>
       </c>
-      <c r="L39" s="396">
+      <c r="L39" s="357">
         <f t="shared" si="6"/>
         <v>0.21988735890422334</v>
       </c>
-      <c r="M39" s="389">
+      <c r="M39" s="350">
         <v>82623862500</v>
       </c>
     </row>
@@ -26265,10 +26249,10 @@
       <c r="C40" s="326">
         <v>37</v>
       </c>
-      <c r="D40" s="397">
+      <c r="D40" s="358">
         <v>1839.5166666666676</v>
       </c>
-      <c r="E40" s="398">
+      <c r="E40" s="359">
         <v>11033.584999999999</v>
       </c>
       <c r="F40" s="119">
@@ -26279,27 +26263,27 @@
         <f t="shared" si="1"/>
         <v>1802.2342333333336</v>
       </c>
-      <c r="H40" s="384">
+      <c r="H40" s="345">
         <f t="shared" si="2"/>
         <v>257.46203333333335</v>
       </c>
-      <c r="I40" s="384">
+      <c r="I40" s="345">
         <f t="shared" si="3"/>
         <v>386.19305000000003</v>
       </c>
-      <c r="J40" s="393">
+      <c r="J40" s="354">
         <f t="shared" si="4"/>
         <v>88.356862500000005</v>
       </c>
-      <c r="K40" s="396">
+      <c r="K40" s="357">
         <f t="shared" si="5"/>
         <v>0.34318404681285691</v>
       </c>
-      <c r="L40" s="396">
+      <c r="L40" s="357">
         <f t="shared" si="6"/>
         <v>0.22878936454190463</v>
       </c>
-      <c r="M40" s="389">
+      <c r="M40" s="350">
         <v>88356862500</v>
       </c>
     </row>
@@ -26307,10 +26291,10 @@
       <c r="C41" s="326">
         <v>38</v>
       </c>
-      <c r="D41" s="397">
+      <c r="D41" s="358">
         <v>1889.2333333333343</v>
       </c>
-      <c r="E41" s="398">
+      <c r="E41" s="359">
         <v>11331.789999999999</v>
       </c>
       <c r="F41" s="119">
@@ -26321,27 +26305,27 @@
         <f t="shared" si="1"/>
         <v>1850.9432666666664</v>
       </c>
-      <c r="H41" s="384">
+      <c r="H41" s="345">
         <f t="shared" si="2"/>
         <v>264.42046666666664</v>
       </c>
-      <c r="I41" s="384">
+      <c r="I41" s="345">
         <f t="shared" si="3"/>
         <v>396.63069999999999</v>
       </c>
-      <c r="J41" s="393">
+      <c r="J41" s="354">
         <f t="shared" si="4"/>
         <v>94.451662499999998</v>
       </c>
-      <c r="K41" s="396">
+      <c r="K41" s="357">
         <f t="shared" si="5"/>
         <v>0.35720254067574703</v>
       </c>
-      <c r="L41" s="396">
+      <c r="L41" s="357">
         <f t="shared" si="6"/>
         <v>0.23813502711716467</v>
       </c>
-      <c r="M41" s="389">
+      <c r="M41" s="350">
         <v>94451662500</v>
       </c>
     </row>
@@ -26349,10 +26333,10 @@
       <c r="C42" s="326">
         <v>39</v>
       </c>
-      <c r="D42" s="397">
+      <c r="D42" s="358">
         <v>1938.950000000001</v>
       </c>
-      <c r="E42" s="398">
+      <c r="E42" s="359">
         <v>11629.994999999999</v>
       </c>
       <c r="F42" s="119">
@@ -26363,27 +26347,27 @@
         <f t="shared" si="1"/>
         <v>1899.6523</v>
       </c>
-      <c r="H42" s="384">
+      <c r="H42" s="345">
         <f t="shared" si="2"/>
         <v>271.37889999999999</v>
       </c>
-      <c r="I42" s="384">
+      <c r="I42" s="345">
         <f t="shared" si="3"/>
         <v>407.06835000000001</v>
       </c>
-      <c r="J42" s="393">
+      <c r="J42" s="354">
         <f t="shared" si="4"/>
         <v>100.9289625</v>
       </c>
-      <c r="K42" s="396">
+      <c r="K42" s="357">
         <f t="shared" si="5"/>
         <v>0.37191160587650701</v>
       </c>
-      <c r="L42" s="396">
+      <c r="L42" s="357">
         <f t="shared" si="6"/>
         <v>0.24794107058433798</v>
       </c>
-      <c r="M42" s="389">
+      <c r="M42" s="350">
         <v>100928962500</v>
       </c>
     </row>
@@ -26391,10 +26375,10 @@
       <c r="C43" s="326">
         <v>40</v>
       </c>
-      <c r="D43" s="397">
+      <c r="D43" s="358">
         <v>1988.6666666666677</v>
       </c>
-      <c r="E43" s="398">
+      <c r="E43" s="359">
         <v>11928.199999999999</v>
       </c>
       <c r="F43" s="119">
@@ -26405,27 +26389,27 @@
         <f t="shared" si="1"/>
         <v>1948.3613333333333</v>
       </c>
-      <c r="H43" s="384">
+      <c r="H43" s="345">
         <f t="shared" si="2"/>
         <v>278.33733333333333</v>
       </c>
-      <c r="I43" s="384">
+      <c r="I43" s="345">
         <f t="shared" si="3"/>
         <v>417.50599999999997</v>
       </c>
-      <c r="J43" s="393">
+      <c r="J43" s="354">
         <f t="shared" si="4"/>
         <v>107.8058625</v>
       </c>
-      <c r="K43" s="396">
+      <c r="K43" s="357">
         <f t="shared" si="5"/>
         <v>0.38732088580762913</v>
       </c>
-      <c r="L43" s="396">
+      <c r="L43" s="357">
         <f t="shared" si="6"/>
         <v>0.25821392387175279</v>
       </c>
-      <c r="M43" s="389">
+      <c r="M43" s="350">
         <v>107805862500</v>
       </c>
     </row>
@@ -26433,10 +26417,10 @@
       <c r="C44" s="326">
         <v>41</v>
       </c>
-      <c r="D44" s="397">
+      <c r="D44" s="358">
         <v>2038.3833333333343</v>
       </c>
-      <c r="E44" s="398">
+      <c r="E44" s="359">
         <v>12226.404999999999</v>
       </c>
       <c r="F44" s="119">
@@ -26447,27 +26431,27 @@
         <f t="shared" si="1"/>
         <v>1997.0703666666668</v>
       </c>
-      <c r="H44" s="384">
+      <c r="H44" s="345">
         <f t="shared" si="2"/>
         <v>285.29576666666668</v>
       </c>
-      <c r="I44" s="384">
+      <c r="I44" s="345">
         <f t="shared" si="3"/>
         <v>427.94364999999999</v>
       </c>
-      <c r="J44" s="393">
+      <c r="J44" s="354">
         <f t="shared" si="4"/>
         <v>115.10396249999999</v>
       </c>
-      <c r="K44" s="396">
+      <c r="K44" s="357">
         <f t="shared" si="5"/>
         <v>0.40345485614753246</v>
       </c>
-      <c r="L44" s="396">
+      <c r="L44" s="357">
         <f t="shared" si="6"/>
         <v>0.26896990409835497</v>
       </c>
-      <c r="M44" s="389">
+      <c r="M44" s="350">
         <v>115103962500</v>
       </c>
     </row>
@@ -26475,10 +26459,10 @@
       <c r="C45" s="326">
         <v>42</v>
       </c>
-      <c r="D45" s="397">
+      <c r="D45" s="358">
         <v>2088.1000000000008</v>
       </c>
-      <c r="E45" s="398">
+      <c r="E45" s="359">
         <v>12524.609999999999</v>
       </c>
       <c r="F45" s="119">
@@ -26489,27 +26473,27 @@
         <f t="shared" si="1"/>
         <v>2045.7793999999997</v>
       </c>
-      <c r="H45" s="384">
+      <c r="H45" s="345">
         <f t="shared" si="2"/>
         <v>292.25420000000003</v>
       </c>
-      <c r="I45" s="384">
+      <c r="I45" s="345">
         <f t="shared" si="3"/>
         <v>438.38130000000001</v>
       </c>
-      <c r="J45" s="393">
+      <c r="J45" s="354">
         <f t="shared" si="4"/>
         <v>122.8421625</v>
       </c>
-      <c r="K45" s="396">
+      <c r="K45" s="357">
         <f t="shared" si="5"/>
         <v>0.42032642302488721</v>
       </c>
-      <c r="L45" s="396">
+      <c r="L45" s="357">
         <f t="shared" si="6"/>
         <v>0.28021761534992484</v>
       </c>
-      <c r="M45" s="389">
+      <c r="M45" s="350">
         <v>122842162500</v>
       </c>
     </row>
@@ -26517,10 +26501,10 @@
       <c r="C46" s="326">
         <v>43</v>
       </c>
-      <c r="D46" s="397">
+      <c r="D46" s="358">
         <v>2137.8166666666675</v>
       </c>
-      <c r="E46" s="398">
+      <c r="E46" s="359">
         <v>12822.814999999999</v>
       </c>
       <c r="F46" s="119">
@@ -26531,27 +26515,27 @@
         <f t="shared" si="1"/>
         <v>2094.4884333333334</v>
       </c>
-      <c r="H46" s="384">
+      <c r="H46" s="345">
         <f t="shared" si="2"/>
         <v>299.21263333333332</v>
       </c>
-      <c r="I46" s="384">
+      <c r="I46" s="345">
         <f t="shared" si="3"/>
         <v>448.81894999999997</v>
       </c>
-      <c r="J46" s="393">
+      <c r="J46" s="354">
         <f t="shared" si="4"/>
         <v>131.0834625</v>
       </c>
-      <c r="K46" s="396">
+      <c r="K46" s="357">
         <f t="shared" si="5"/>
         <v>0.43809467882316466</v>
       </c>
-      <c r="L46" s="396">
+      <c r="L46" s="357">
         <f t="shared" si="6"/>
         <v>0.29206311921544315</v>
       </c>
-      <c r="M46" s="389">
+      <c r="M46" s="350">
         <v>131083462500</v>
       </c>
     </row>
@@ -26559,10 +26543,10 @@
       <c r="C47" s="326">
         <v>44</v>
       </c>
-      <c r="D47" s="397">
+      <c r="D47" s="358">
         <v>2187.5333333333342</v>
       </c>
-      <c r="E47" s="398">
+      <c r="E47" s="359">
         <v>13121.019999999999</v>
       </c>
       <c r="F47" s="119">
@@ -26573,27 +26557,27 @@
         <f t="shared" si="1"/>
         <v>2143.197466666667</v>
       </c>
-      <c r="H47" s="384">
+      <c r="H47" s="345">
         <f t="shared" si="2"/>
         <v>306.17106666666666</v>
       </c>
-      <c r="I47" s="384">
+      <c r="I47" s="345">
         <f t="shared" si="3"/>
         <v>459.25659999999999</v>
       </c>
-      <c r="J47" s="393">
+      <c r="J47" s="354">
         <f t="shared" si="4"/>
         <v>139.8593625</v>
       </c>
-      <c r="K47" s="396">
+      <c r="K47" s="357">
         <f t="shared" si="5"/>
         <v>0.45680136932163851</v>
       </c>
-      <c r="L47" s="396">
+      <c r="L47" s="357">
         <f t="shared" si="6"/>
         <v>0.30453424621442565</v>
       </c>
-      <c r="M47" s="389">
+      <c r="M47" s="350">
         <v>139859362500</v>
       </c>
     </row>
@@ -26601,10 +26585,10 @@
       <c r="C48" s="326">
         <v>45</v>
       </c>
-      <c r="D48" s="397">
+      <c r="D48" s="358">
         <v>2237.2500000000009</v>
       </c>
-      <c r="E48" s="398">
+      <c r="E48" s="359">
         <v>13419.224999999999</v>
       </c>
       <c r="F48" s="119">
@@ -26615,27 +26599,27 @@
         <f t="shared" si="1"/>
         <v>2191.9064999999996</v>
       </c>
-      <c r="H48" s="384">
+      <c r="H48" s="345">
         <f t="shared" si="2"/>
         <v>313.12950000000001</v>
       </c>
-      <c r="I48" s="384">
+      <c r="I48" s="345">
         <f t="shared" si="3"/>
         <v>469.69424999999995</v>
       </c>
-      <c r="J48" s="393">
+      <c r="J48" s="354">
         <f t="shared" si="4"/>
         <v>149.20226249999999</v>
       </c>
-      <c r="K48" s="396">
+      <c r="K48" s="357">
         <f t="shared" si="5"/>
         <v>0.47648740377383791</v>
       </c>
-      <c r="L48" s="396">
+      <c r="L48" s="357">
         <f t="shared" si="6"/>
         <v>0.31765826918255868</v>
       </c>
-      <c r="M48" s="389">
+      <c r="M48" s="350">
         <v>149202262500</v>
       </c>
     </row>
@@ -26643,10 +26627,10 @@
       <c r="C49" s="326">
         <v>46</v>
       </c>
-      <c r="D49" s="397">
+      <c r="D49" s="358">
         <v>2286.9666666666676</v>
       </c>
-      <c r="E49" s="398">
+      <c r="E49" s="359">
         <v>13717.429999999998</v>
       </c>
       <c r="F49" s="119">
@@ -26657,27 +26641,27 @@
         <f t="shared" si="1"/>
         <v>2240.6155333333331</v>
       </c>
-      <c r="H49" s="384">
+      <c r="H49" s="345">
         <f t="shared" si="2"/>
         <v>320.0879333333333</v>
       </c>
-      <c r="I49" s="384">
+      <c r="I49" s="345">
         <f t="shared" si="3"/>
         <v>480.13189999999992</v>
       </c>
-      <c r="J49" s="393">
+      <c r="J49" s="354">
         <f t="shared" si="4"/>
         <v>159.14906250000001</v>
       </c>
-      <c r="K49" s="396">
+      <c r="K49" s="357">
         <f t="shared" si="5"/>
         <v>0.49720419274370242</v>
       </c>
-      <c r="L49" s="396">
+      <c r="L49" s="357">
         <f t="shared" si="6"/>
         <v>0.33146946182913495</v>
       </c>
-      <c r="M49" s="389">
+      <c r="M49" s="350">
         <v>159149062500</v>
       </c>
     </row>
@@ -26685,10 +26669,10 @@
       <c r="C50" s="326">
         <v>47</v>
       </c>
-      <c r="D50" s="397">
+      <c r="D50" s="358">
         <v>2336.6833333333343</v>
       </c>
-      <c r="E50" s="398">
+      <c r="E50" s="359">
         <v>14015.634999999998</v>
       </c>
       <c r="F50" s="119">
@@ -26699,27 +26683,27 @@
         <f t="shared" si="1"/>
         <v>2289.3245666666667</v>
       </c>
-      <c r="H50" s="384">
+      <c r="H50" s="345">
         <f t="shared" si="2"/>
         <v>327.04636666666664</v>
       </c>
-      <c r="I50" s="384">
+      <c r="I50" s="345">
         <f t="shared" si="3"/>
         <v>490.56954999999999</v>
       </c>
-      <c r="J50" s="393">
+      <c r="J50" s="354">
         <f t="shared" si="4"/>
         <v>169.73666249999999</v>
       </c>
-      <c r="K50" s="396">
+      <c r="K50" s="357">
         <f t="shared" si="5"/>
         <v>0.51899877142802686</v>
       </c>
-      <c r="L50" s="396">
+      <c r="L50" s="357">
         <f t="shared" si="6"/>
         <v>0.34599918095201793</v>
       </c>
-      <c r="M50" s="389">
+      <c r="M50" s="350">
         <v>169736662500</v>
       </c>
     </row>
@@ -26727,10 +26711,10 @@
       <c r="C51" s="326">
         <v>48</v>
       </c>
-      <c r="D51" s="397">
+      <c r="D51" s="358">
         <v>2386.400000000001</v>
       </c>
-      <c r="E51" s="398">
+      <c r="E51" s="359">
         <v>14313.839999999998</v>
       </c>
       <c r="F51" s="119">
@@ -26741,27 +26725,27 @@
         <f t="shared" si="1"/>
         <v>2338.0335999999993</v>
       </c>
-      <c r="H51" s="384">
+      <c r="H51" s="345">
         <f t="shared" si="2"/>
         <v>334.00479999999993</v>
       </c>
-      <c r="I51" s="384">
+      <c r="I51" s="345">
         <f t="shared" si="3"/>
         <v>501.00719999999995</v>
       </c>
-      <c r="J51" s="393">
+      <c r="J51" s="354">
         <f t="shared" si="4"/>
         <v>181.0064625</v>
       </c>
-      <c r="K51" s="396">
+      <c r="K51" s="357">
         <f t="shared" si="5"/>
         <v>0.54192772828414448</v>
       </c>
-      <c r="L51" s="396">
+      <c r="L51" s="357">
         <f t="shared" si="6"/>
         <v>0.36128515218942964</v>
       </c>
-      <c r="M51" s="389">
+      <c r="M51" s="350">
         <v>181006462500</v>
       </c>
     </row>
@@ -26769,10 +26753,10 @@
       <c r="C52" s="326">
         <v>49</v>
       </c>
-      <c r="D52" s="397">
+      <c r="D52" s="358">
         <v>2436.1166666666677</v>
       </c>
-      <c r="E52" s="398">
+      <c r="E52" s="359">
         <v>14612.044999999998</v>
       </c>
       <c r="F52" s="119">
@@ -26783,27 +26767,27 @@
         <f t="shared" si="1"/>
         <v>2386.7426333333333</v>
       </c>
-      <c r="H52" s="384">
+      <c r="H52" s="345">
         <f t="shared" si="2"/>
         <v>340.96323333333333</v>
       </c>
-      <c r="I52" s="384">
+      <c r="I52" s="345">
         <f t="shared" si="3"/>
         <v>511.44484999999997</v>
       </c>
-      <c r="J52" s="393">
+      <c r="J52" s="354">
         <f t="shared" si="4"/>
         <v>192.99986250000001</v>
       </c>
-      <c r="K52" s="396">
+      <c r="K52" s="357">
         <f t="shared" si="5"/>
         <v>0.56604303230348296</v>
       </c>
-      <c r="L52" s="396">
+      <c r="L52" s="357">
         <f t="shared" si="6"/>
         <v>0.37736202153565535</v>
       </c>
-      <c r="M52" s="389">
+      <c r="M52" s="350">
         <v>192999862500</v>
       </c>
     </row>
@@ -26811,10 +26795,10 @@
       <c r="C53" s="326">
         <v>50</v>
       </c>
-      <c r="D53" s="397">
+      <c r="D53" s="358">
         <v>2485.8333333333344</v>
       </c>
-      <c r="E53" s="398">
+      <c r="E53" s="359">
         <v>14910.249999999998</v>
       </c>
       <c r="F53" s="119">
@@ -26825,27 +26809,27 @@
         <f t="shared" si="1"/>
         <v>2435.4516666666664</v>
       </c>
-      <c r="H53" s="384">
+      <c r="H53" s="345">
         <f t="shared" si="2"/>
         <v>347.92166666666662</v>
       </c>
-      <c r="I53" s="384">
+      <c r="I53" s="345">
         <f t="shared" si="3"/>
         <v>521.88249999999994</v>
       </c>
-      <c r="J53" s="393">
+      <c r="J53" s="354">
         <f t="shared" si="4"/>
         <v>205.76276250000001</v>
       </c>
-      <c r="K53" s="396">
+      <c r="K53" s="357">
         <f t="shared" si="5"/>
         <v>0.59140542890401582</v>
       </c>
-      <c r="L53" s="396">
+      <c r="L53" s="357">
         <f t="shared" si="6"/>
         <v>0.39427028593601054</v>
       </c>
-      <c r="M53" s="389">
+      <c r="M53" s="350">
         <v>205762762500</v>
       </c>
     </row>
@@ -26853,10 +26837,10 @@
       <c r="C54" s="326">
         <v>51</v>
       </c>
-      <c r="D54" s="397">
+      <c r="D54" s="358">
         <v>2535.5500000000011</v>
       </c>
-      <c r="E54" s="398">
+      <c r="E54" s="359">
         <v>15208.454999999998</v>
       </c>
       <c r="F54" s="119">
@@ -26867,27 +26851,27 @@
         <f t="shared" si="1"/>
         <v>2484.1606999999995</v>
       </c>
-      <c r="H54" s="384">
+      <c r="H54" s="345">
         <f t="shared" si="2"/>
         <v>354.88009999999991</v>
       </c>
-      <c r="I54" s="384">
+      <c r="I54" s="345">
         <f t="shared" si="3"/>
         <v>532.3201499999999</v>
       </c>
-      <c r="J54" s="393">
+      <c r="J54" s="354">
         <f t="shared" si="4"/>
         <v>219.3446625</v>
       </c>
-      <c r="K54" s="396">
+      <c r="K54" s="357">
         <f t="shared" si="5"/>
         <v>0.61808104342847081</v>
       </c>
-      <c r="L54" s="396">
+      <c r="L54" s="357">
         <f t="shared" si="6"/>
         <v>0.41205402895231386</v>
       </c>
-      <c r="M54" s="389">
+      <c r="M54" s="350">
         <v>219344662500</v>
       </c>
     </row>
@@ -26895,10 +26879,10 @@
       <c r="C55" s="326">
         <v>52</v>
       </c>
-      <c r="D55" s="397">
+      <c r="D55" s="358">
         <v>2585.2666666666678</v>
       </c>
-      <c r="E55" s="398">
+      <c r="E55" s="359">
         <v>15506.659999999998</v>
       </c>
       <c r="F55" s="119">
@@ -26909,27 +26893,27 @@
         <f t="shared" si="1"/>
         <v>2532.8697333333334</v>
       </c>
-      <c r="H55" s="384">
+      <c r="H55" s="345">
         <f t="shared" si="2"/>
         <v>361.83853333333332</v>
       </c>
-      <c r="I55" s="384">
+      <c r="I55" s="345">
         <f t="shared" si="3"/>
         <v>542.75779999999997</v>
       </c>
-      <c r="J55" s="393">
+      <c r="J55" s="354">
         <f t="shared" si="4"/>
         <v>233.7959625</v>
       </c>
-      <c r="K55" s="396">
+      <c r="K55" s="357">
         <f t="shared" si="5"/>
         <v>0.64613340195203095</v>
       </c>
-      <c r="L55" s="396">
+      <c r="L55" s="357">
         <f t="shared" si="6"/>
         <v>0.43075560130135399</v>
       </c>
-      <c r="M55" s="389">
+      <c r="M55" s="350">
         <v>233795962500</v>
       </c>
     </row>
@@ -26937,10 +26921,10 @@
       <c r="C56" s="326">
         <v>53</v>
       </c>
-      <c r="D56" s="397">
+      <c r="D56" s="358">
         <v>2634.9833333333345</v>
       </c>
-      <c r="E56" s="398">
+      <c r="E56" s="359">
         <v>15804.864999999998</v>
       </c>
       <c r="F56" s="119">
@@ -26951,27 +26935,27 @@
         <f t="shared" si="1"/>
         <v>2581.5787666666665</v>
       </c>
-      <c r="H56" s="384">
+      <c r="H56" s="345">
         <f t="shared" si="2"/>
         <v>368.79696666666661</v>
       </c>
-      <c r="I56" s="384">
+      <c r="I56" s="345">
         <f t="shared" si="3"/>
         <v>553.19545000000005</v>
       </c>
-      <c r="J56" s="393">
+      <c r="J56" s="354">
         <f t="shared" si="4"/>
         <v>249.17066249999999</v>
       </c>
-      <c r="K56" s="396">
+      <c r="K56" s="357">
         <f t="shared" si="5"/>
         <v>0.67563099759768463</v>
       </c>
-      <c r="L56" s="396">
+      <c r="L56" s="357">
         <f t="shared" si="6"/>
         <v>0.45042066506512296</v>
       </c>
-      <c r="M56" s="389">
+      <c r="M56" s="350">
         <v>249170662500</v>
       </c>
     </row>
@@ -26979,10 +26963,10 @@
       <c r="C57" s="326">
         <v>54</v>
       </c>
-      <c r="D57" s="397">
+      <c r="D57" s="358">
         <v>2684.7000000000012</v>
       </c>
-      <c r="E57" s="398">
+      <c r="E57" s="359">
         <v>16103.069999999998</v>
       </c>
       <c r="F57" s="119">
@@ -26993,27 +26977,27 @@
         <f t="shared" si="1"/>
         <v>2630.2878000000001</v>
       </c>
-      <c r="H57" s="384">
+      <c r="H57" s="345">
         <f t="shared" si="2"/>
         <v>375.75540000000001</v>
       </c>
-      <c r="I57" s="384">
+      <c r="I57" s="345">
         <f t="shared" si="3"/>
         <v>563.63310000000001</v>
       </c>
-      <c r="J57" s="393">
+      <c r="J57" s="354">
         <f t="shared" si="4"/>
         <v>265.52816250000001</v>
       </c>
-      <c r="K57" s="396">
+      <c r="K57" s="357">
         <f t="shared" si="5"/>
         <v>0.70665162097470857</v>
       </c>
-      <c r="L57" s="396">
+      <c r="L57" s="357">
         <f t="shared" si="6"/>
         <v>0.47110108064980571</v>
       </c>
-      <c r="M57" s="389">
+      <c r="M57" s="350">
         <v>265528162500</v>
       </c>
     </row>
@@ -27021,10 +27005,10 @@
       <c r="C58" s="326">
         <v>55</v>
       </c>
-      <c r="D58" s="397">
+      <c r="D58" s="358">
         <v>2734.4166666666679</v>
       </c>
-      <c r="E58" s="398">
+      <c r="E58" s="359">
         <v>16401.274999999998</v>
       </c>
       <c r="F58" s="119">
@@ -27035,27 +27019,27 @@
         <f t="shared" si="1"/>
         <v>2678.9968333333331</v>
       </c>
-      <c r="H58" s="384">
+      <c r="H58" s="345">
         <f t="shared" si="2"/>
         <v>382.7138333333333</v>
       </c>
-      <c r="I58" s="384">
+      <c r="I58" s="345">
         <f t="shared" si="3"/>
         <v>574.07074999999998</v>
       </c>
-      <c r="J58" s="393">
+      <c r="J58" s="354">
         <f t="shared" si="4"/>
         <v>282.92966250000001</v>
       </c>
-      <c r="K58" s="396">
+      <c r="K58" s="357">
         <f t="shared" si="5"/>
         <v>0.73927210844656355</v>
       </c>
-      <c r="L58" s="396">
+      <c r="L58" s="357">
         <f t="shared" si="6"/>
         <v>0.49284807229770899</v>
       </c>
-      <c r="M58" s="389">
+      <c r="M58" s="350">
         <v>282929662500</v>
       </c>
     </row>
@@ -27063,10 +27047,10 @@
       <c r="C59" s="326">
         <v>56</v>
       </c>
-      <c r="D59" s="397">
+      <c r="D59" s="358">
         <v>2784.1333333333346</v>
       </c>
-      <c r="E59" s="398">
+      <c r="E59" s="359">
         <v>16699.48</v>
       </c>
       <c r="F59" s="119">
@@ -27077,27 +27061,27 @@
         <f t="shared" si="1"/>
         <v>2727.7058666666671</v>
       </c>
-      <c r="H59" s="384">
+      <c r="H59" s="345">
         <f t="shared" si="2"/>
         <v>389.6722666666667</v>
       </c>
-      <c r="I59" s="384">
+      <c r="I59" s="345">
         <f t="shared" si="3"/>
         <v>584.50840000000005</v>
       </c>
-      <c r="J59" s="393">
+      <c r="J59" s="354">
         <f t="shared" si="4"/>
         <v>301.44176249999998</v>
       </c>
-      <c r="K59" s="396">
+      <c r="K59" s="357">
         <f t="shared" si="5"/>
         <v>0.77357766586416876</v>
       </c>
-      <c r="L59" s="396">
+      <c r="L59" s="357">
         <f t="shared" si="6"/>
         <v>0.51571844390944588</v>
       </c>
-      <c r="M59" s="389">
+      <c r="M59" s="350">
         <v>301441762500</v>
       </c>
     </row>
@@ -27105,10 +27089,10 @@
       <c r="C60" s="326">
         <v>57</v>
       </c>
-      <c r="D60" s="397">
+      <c r="D60" s="358">
         <v>2833.8500000000013</v>
       </c>
-      <c r="E60" s="398">
+      <c r="E60" s="359">
         <v>16997.685000000001</v>
       </c>
       <c r="F60" s="119">
@@ -27119,27 +27103,27 @@
         <f t="shared" si="1"/>
         <v>2776.4149000000007</v>
       </c>
-      <c r="H60" s="384">
+      <c r="H60" s="345">
         <f t="shared" si="2"/>
         <v>396.63070000000005</v>
       </c>
-      <c r="I60" s="384">
+      <c r="I60" s="345">
         <f t="shared" si="3"/>
         <v>594.94605000000013</v>
       </c>
-      <c r="J60" s="393">
+      <c r="J60" s="354">
         <f t="shared" si="4"/>
         <v>321.13556249999999</v>
       </c>
-      <c r="K60" s="396">
+      <c r="K60" s="357">
         <f t="shared" si="5"/>
         <v>0.80965886528702879</v>
       </c>
-      <c r="L60" s="396">
+      <c r="L60" s="357">
         <f t="shared" si="6"/>
         <v>0.53977257685801916</v>
       </c>
-      <c r="M60" s="389">
+      <c r="M60" s="350">
         <v>321135562500</v>
       </c>
     </row>
@@ -27147,10 +27131,10 @@
       <c r="C61" s="326">
         <v>58</v>
       </c>
-      <c r="D61" s="397">
+      <c r="D61" s="358">
         <v>2883.566666666668</v>
       </c>
-      <c r="E61" s="398">
+      <c r="E61" s="359">
         <v>17295.890000000003</v>
       </c>
       <c r="F61" s="119">
@@ -27161,27 +27145,27 @@
         <f t="shared" si="1"/>
         <v>2825.1239333333342</v>
       </c>
-      <c r="H61" s="384">
+      <c r="H61" s="345">
         <f t="shared" si="2"/>
         <v>403.58913333333345</v>
       </c>
-      <c r="I61" s="384">
+      <c r="I61" s="345">
         <f t="shared" si="3"/>
         <v>605.38370000000009</v>
       </c>
-      <c r="J61" s="393">
+      <c r="J61" s="354">
         <f t="shared" si="4"/>
         <v>342.08576249999999</v>
       </c>
-      <c r="K61" s="396">
+      <c r="K61" s="357">
         <f t="shared" si="5"/>
         <v>0.84760895238837752</v>
       </c>
-      <c r="L61" s="396">
+      <c r="L61" s="357">
         <f t="shared" si="6"/>
         <v>0.56507263492558513</v>
       </c>
-      <c r="M61" s="389">
+      <c r="M61" s="350">
         <v>342085762500</v>
       </c>
     </row>
@@ -27189,10 +27173,10 @@
       <c r="C62" s="326">
         <v>59</v>
       </c>
-      <c r="D62" s="397">
+      <c r="D62" s="358">
         <v>2933.2833333333347</v>
       </c>
-      <c r="E62" s="398">
+      <c r="E62" s="359">
         <v>17594.095000000005</v>
       </c>
       <c r="F62" s="119">
@@ -27203,27 +27187,27 @@
         <f t="shared" si="1"/>
         <v>2873.8329666666677</v>
       </c>
-      <c r="H62" s="384">
+      <c r="H62" s="345">
         <f t="shared" si="2"/>
         <v>410.5475666666668</v>
       </c>
-      <c r="I62" s="384">
+      <c r="I62" s="345">
         <f t="shared" si="3"/>
         <v>615.82135000000028</v>
       </c>
-      <c r="J62" s="393">
+      <c r="J62" s="354">
         <f t="shared" si="4"/>
         <v>364.37246249999998</v>
       </c>
-      <c r="K62" s="396">
+      <c r="K62" s="357">
         <f t="shared" si="5"/>
         <v>0.88752800426617195</v>
       </c>
-      <c r="L62" s="396">
+      <c r="L62" s="357">
         <f t="shared" si="6"/>
         <v>0.5916853361774479</v>
       </c>
-      <c r="M62" s="389">
+      <c r="M62" s="350">
         <v>364372462500</v>
       </c>
     </row>
@@ -27231,10 +27215,10 @@
       <c r="C63" s="327">
         <v>60</v>
       </c>
-      <c r="D63" s="399">
+      <c r="D63" s="360">
         <v>2983.0000000000014</v>
       </c>
-      <c r="E63" s="400">
+      <c r="E63" s="361">
         <v>17892.300000000007</v>
       </c>
       <c r="F63" s="331">
@@ -27245,27 +27229,27 @@
         <f t="shared" si="1"/>
         <v>2922.5420000000008</v>
       </c>
-      <c r="H63" s="384">
+      <c r="H63" s="345">
         <f t="shared" si="2"/>
         <v>417.50600000000014</v>
       </c>
-      <c r="I63" s="384">
+      <c r="I63" s="345">
         <f t="shared" si="3"/>
         <v>626.25900000000024</v>
       </c>
-      <c r="J63" s="393">
+      <c r="J63" s="354">
         <f t="shared" si="4"/>
         <v>388.08296250000001</v>
       </c>
-      <c r="K63" s="396">
+      <c r="K63" s="357">
         <f t="shared" si="5"/>
         <v>0.92952667147298451</v>
       </c>
-      <c r="L63" s="396">
+      <c r="L63" s="357">
         <f t="shared" si="6"/>
         <v>0.61968444764865627</v>
       </c>
-      <c r="M63" s="389">
+      <c r="M63" s="350">
         <v>388082962500</v>
       </c>
     </row>
@@ -27274,7 +27258,7 @@
       <c r="D64" s="330"/>
       <c r="E64" s="330"/>
       <c r="F64" s="330"/>
-      <c r="G64" s="395"/>
+      <c r="G64" s="356"/>
     </row>
     <row r="65" spans="3:7" ht="15">
       <c r="C65" s="329"/>
@@ -27538,7 +27522,7 @@
     <row r="106" spans="3:13" ht="15">
       <c r="I106" s="340"/>
       <c r="K106" s="338"/>
-      <c r="L106" s="392"/>
+      <c r="L106" s="353"/>
       <c r="M106" s="339"/>
     </row>
     <row r="107" spans="3:13" ht="15">
@@ -27585,22 +27569,22 @@
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
       <c r="A1" s="242"/>
-      <c r="B1" s="373" t="s">
+      <c r="B1" s="390" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
-      <c r="N1" s="374"/>
-      <c r="O1" s="374"/>
+      <c r="C1" s="391"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="391"/>
+      <c r="F1" s="391"/>
+      <c r="G1" s="391"/>
+      <c r="H1" s="391"/>
+      <c r="I1" s="391"/>
+      <c r="J1" s="391"/>
+      <c r="K1" s="391"/>
+      <c r="L1" s="391"/>
+      <c r="M1" s="391"/>
+      <c r="N1" s="391"/>
+      <c r="O1" s="391"/>
       <c r="P1" s="242"/>
       <c r="Q1" s="242"/>
     </row>
@@ -28438,10 +28422,10 @@
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="183"/>
-      <c r="B38" s="375" t="s">
+      <c r="B38" s="392" t="s">
         <v>238</v>
       </c>
-      <c r="C38" s="371"/>
+      <c r="C38" s="388"/>
       <c r="D38" s="311" t="s">
         <v>249</v>
       </c>
@@ -28487,31 +28471,31 @@
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="183"/>
-      <c r="B39" s="376"/>
-      <c r="C39" s="371"/>
-      <c r="D39" s="377" t="s">
+      <c r="B39" s="393"/>
+      <c r="C39" s="388"/>
+      <c r="D39" s="394" t="s">
         <v>264</v>
       </c>
-      <c r="E39" s="371"/>
-      <c r="F39" s="371"/>
-      <c r="G39" s="371"/>
-      <c r="H39" s="371"/>
-      <c r="I39" s="371"/>
-      <c r="J39" s="371"/>
-      <c r="K39" s="371"/>
-      <c r="L39" s="371"/>
-      <c r="M39" s="371"/>
-      <c r="N39" s="371"/>
-      <c r="O39" s="371"/>
-      <c r="P39" s="371"/>
-      <c r="Q39" s="371"/>
+      <c r="E39" s="388"/>
+      <c r="F39" s="388"/>
+      <c r="G39" s="388"/>
+      <c r="H39" s="388"/>
+      <c r="I39" s="388"/>
+      <c r="J39" s="388"/>
+      <c r="K39" s="388"/>
+      <c r="L39" s="388"/>
+      <c r="M39" s="388"/>
+      <c r="N39" s="388"/>
+      <c r="O39" s="388"/>
+      <c r="P39" s="388"/>
+      <c r="Q39" s="388"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="183"/>
-      <c r="B40" s="370" t="s">
+      <c r="B40" s="387" t="s">
         <v>288</v>
       </c>
-      <c r="C40" s="371"/>
+      <c r="C40" s="388"/>
       <c r="D40" s="312">
         <v>75077</v>
       </c>
@@ -28557,10 +28541,10 @@
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="183"/>
-      <c r="B41" s="370" t="s">
+      <c r="B41" s="387" t="s">
         <v>290</v>
       </c>
-      <c r="C41" s="371"/>
+      <c r="C41" s="388"/>
       <c r="D41" s="312">
         <v>3973</v>
       </c>
@@ -28606,10 +28590,10 @@
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="183"/>
-      <c r="B42" s="370" t="s">
+      <c r="B42" s="387" t="s">
         <v>291</v>
       </c>
-      <c r="C42" s="371"/>
+      <c r="C42" s="388"/>
       <c r="D42" s="313">
         <v>20</v>
       </c>
@@ -28655,10 +28639,10 @@
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="183"/>
-      <c r="B43" s="370" t="s">
+      <c r="B43" s="387" t="s">
         <v>292</v>
       </c>
-      <c r="C43" s="371"/>
+      <c r="C43" s="388"/>
       <c r="D43" s="313">
         <v>108</v>
       </c>
@@ -28704,10 +28688,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="183"/>
-      <c r="B44" s="370" t="s">
+      <c r="B44" s="387" t="s">
         <v>293</v>
       </c>
-      <c r="C44" s="371"/>
+      <c r="C44" s="388"/>
       <c r="D44" s="312">
         <v>51365</v>
       </c>
@@ -28949,10 +28933,10 @@
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1">
       <c r="A49" s="183"/>
-      <c r="B49" s="372" t="s">
+      <c r="B49" s="389" t="s">
         <v>307</v>
       </c>
-      <c r="C49" s="371"/>
+      <c r="C49" s="388"/>
       <c r="D49" s="316">
         <v>130543</v>
       </c>
@@ -29229,15 +29213,15 @@
     </row>
     <row r="9" spans="1:20" ht="17.25" customHeight="1">
       <c r="A9" s="321"/>
-      <c r="B9" s="380" t="s">
+      <c r="B9" s="397" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="381"/>
-      <c r="D9" s="381"/>
-      <c r="E9" s="381"/>
-      <c r="F9" s="381"/>
-      <c r="G9" s="381"/>
-      <c r="H9" s="382"/>
+      <c r="C9" s="398"/>
+      <c r="D9" s="398"/>
+      <c r="E9" s="398"/>
+      <c r="F9" s="398"/>
+      <c r="G9" s="398"/>
+      <c r="H9" s="399"/>
       <c r="I9" s="69">
         <f>I10*I11*I12*I13</f>
         <v>1174665803143.3186</v>
@@ -29258,15 +29242,15 @@
     </row>
     <row r="10" spans="1:20" ht="17.25" customHeight="1">
       <c r="A10" s="321"/>
-      <c r="B10" s="380" t="s">
+      <c r="B10" s="397" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="381"/>
-      <c r="D10" s="381"/>
-      <c r="E10" s="381"/>
-      <c r="F10" s="381"/>
-      <c r="G10" s="381"/>
-      <c r="H10" s="382"/>
+      <c r="C10" s="398"/>
+      <c r="D10" s="398"/>
+      <c r="E10" s="398"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="398"/>
+      <c r="H10" s="399"/>
       <c r="I10" s="79">
         <f>Summary!C57</f>
         <v>6309000000</v>
@@ -29287,15 +29271,15 @@
     </row>
     <row r="11" spans="1:20" ht="17.25" customHeight="1">
       <c r="A11" s="321"/>
-      <c r="B11" s="380" t="s">
+      <c r="B11" s="397" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="381"/>
-      <c r="D11" s="381"/>
-      <c r="E11" s="381"/>
-      <c r="F11" s="381"/>
-      <c r="G11" s="381"/>
-      <c r="H11" s="382"/>
+      <c r="C11" s="398"/>
+      <c r="D11" s="398"/>
+      <c r="E11" s="398"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="398"/>
+      <c r="H11" s="399"/>
       <c r="I11" s="81">
         <f>Summary!C60</f>
         <v>0.2</v>
@@ -29314,15 +29298,15 @@
     </row>
     <row r="12" spans="1:20" ht="17.25" customHeight="1">
       <c r="A12" s="321"/>
-      <c r="B12" s="380" t="s">
+      <c r="B12" s="397" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="381"/>
-      <c r="D12" s="381"/>
-      <c r="E12" s="381"/>
-      <c r="F12" s="381"/>
-      <c r="G12" s="381"/>
-      <c r="H12" s="382"/>
+      <c r="C12" s="398"/>
+      <c r="D12" s="398"/>
+      <c r="E12" s="398"/>
+      <c r="F12" s="398"/>
+      <c r="G12" s="398"/>
+      <c r="H12" s="399"/>
       <c r="I12" s="93">
         <f>Summary!C64</f>
         <v>1242.0138888888887</v>
@@ -29343,15 +29327,15 @@
     </row>
     <row r="13" spans="1:20" ht="17.25" customHeight="1">
       <c r="A13" s="321"/>
-      <c r="B13" s="380" t="s">
+      <c r="B13" s="397" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="381"/>
-      <c r="D13" s="381"/>
-      <c r="E13" s="381"/>
-      <c r="F13" s="381"/>
-      <c r="G13" s="381"/>
-      <c r="H13" s="382"/>
+      <c r="C13" s="398"/>
+      <c r="D13" s="398"/>
+      <c r="E13" s="398"/>
+      <c r="F13" s="398"/>
+      <c r="G13" s="398"/>
+      <c r="H13" s="399"/>
       <c r="I13" s="94">
         <f>(1-I18)*(1-I19)*(1-I20)*(1-I21)*(1-I22)*(1-I23)*(1-I24)*(1-I25)</f>
         <v>0.7495443766899198</v>
@@ -29397,10 +29381,10 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="378" t="s">
+      <c r="G15" s="395" t="s">
         <v>214</v>
       </c>
-      <c r="H15" s="349"/>
+      <c r="H15" s="366"/>
       <c r="I15" s="102">
         <f>1000*I9/(24*365*1000000000)</f>
         <v>134.094269765219</v>
@@ -29408,12 +29392,12 @@
       <c r="J15" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="K15" s="379"/>
-      <c r="L15" s="356"/>
-      <c r="M15" s="356"/>
-      <c r="N15" s="356"/>
-      <c r="O15" s="356"/>
-      <c r="P15" s="356"/>
+      <c r="K15" s="396"/>
+      <c r="L15" s="373"/>
+      <c r="M15" s="373"/>
+      <c r="N15" s="373"/>
+      <c r="O15" s="373"/>
+      <c r="P15" s="373"/>
       <c r="Q15" s="319"/>
       <c r="R15" s="320"/>
       <c r="S15" s="320"/>
@@ -29430,12 +29414,12 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
-      <c r="K16" s="379"/>
-      <c r="L16" s="356"/>
-      <c r="M16" s="356"/>
-      <c r="N16" s="356"/>
-      <c r="O16" s="356"/>
-      <c r="P16" s="356"/>
+      <c r="K16" s="396"/>
+      <c r="L16" s="373"/>
+      <c r="M16" s="373"/>
+      <c r="N16" s="373"/>
+      <c r="O16" s="373"/>
+      <c r="P16" s="373"/>
       <c r="Q16" s="319"/>
       <c r="R16" s="320"/>
       <c r="S16" s="320"/>
@@ -29879,21 +29863,21 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1">
       <c r="A1" s="211"/>
-      <c r="B1" s="383" t="s">
+      <c r="B1" s="400" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
-      <c r="G1" s="349"/>
-      <c r="H1" s="349"/>
-      <c r="I1" s="349"/>
-      <c r="J1" s="349"/>
-      <c r="K1" s="349"/>
-      <c r="L1" s="349"/>
-      <c r="M1" s="349"/>
-      <c r="N1" s="349"/>
+      <c r="C1" s="366"/>
+      <c r="D1" s="366"/>
+      <c r="E1" s="366"/>
+      <c r="F1" s="366"/>
+      <c r="G1" s="366"/>
+      <c r="H1" s="366"/>
+      <c r="I1" s="366"/>
+      <c r="J1" s="366"/>
+      <c r="K1" s="366"/>
+      <c r="L1" s="366"/>
+      <c r="M1" s="366"/>
+      <c r="N1" s="366"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="211"/>
@@ -30979,10 +30963,10 @@
         <v>89</v>
       </c>
       <c r="C51" s="213" t="s">
+        <v>357</v>
+      </c>
+      <c r="D51" s="214" t="s">
         <v>358</v>
-      </c>
-      <c r="D51" s="214" t="s">
-        <v>359</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -31001,10 +30985,10 @@
         <v>89</v>
       </c>
       <c r="C52" s="213" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D52" s="214" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -31023,10 +31007,10 @@
         <v>89</v>
       </c>
       <c r="C53" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -31045,10 +31029,10 @@
         <v>89</v>
       </c>
       <c r="C54" s="213" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D54" s="214" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -31066,10 +31050,10 @@
         <v>89</v>
       </c>
       <c r="C55" s="213" t="s">
+        <v>384</v>
+      </c>
+      <c r="D55" s="214" t="s">
         <v>385</v>
-      </c>
-      <c r="D55" s="214" t="s">
-        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -31097,13 +31081,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="353" t="s">
+      <c r="B1" s="370" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="183"/>
@@ -31124,7 +31108,7 @@
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="183"/>
       <c r="B4" s="219" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C4" s="7">
         <v>106</v>
@@ -31302,13 +31286,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="353" t="s">
+      <c r="B1" s="370" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="183"/>
@@ -31510,7 +31494,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -31525,14 +31509,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="353" t="s">
+      <c r="B1" s="370" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
+      <c r="G1" s="371"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="183"/>
@@ -31562,7 +31546,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="183"/>
       <c r="B4" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="13">
         <f>47.1/(1.8*365)</f>
@@ -32268,13 +32252,13 @@
       <c r="A22" s="183"/>
       <c r="B22" s="183"/>
       <c r="C22" s="183"/>
-      <c r="D22" s="355" t="s">
+      <c r="D22" s="372" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="356"/>
-      <c r="F22" s="356"/>
-      <c r="G22" s="356"/>
-      <c r="H22" s="356"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="373"/>
+      <c r="G22" s="373"/>
+      <c r="H22" s="373"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="183"/>
@@ -35191,8 +35175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H12" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -35221,21 +35205,21 @@
   <sheetData>
     <row r="1" spans="1:24" ht="28.5" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="357" t="s">
+      <c r="B1" s="374" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="371"/>
+      <c r="L1" s="371"/>
+      <c r="M1" s="371"/>
+      <c r="N1" s="371"/>
       <c r="O1" s="221"/>
       <c r="P1" s="221"/>
       <c r="Q1" s="221"/>
@@ -35353,10 +35337,10 @@
     </row>
     <row r="6" spans="1:24" ht="16.5" customHeight="1" thickBot="1">
       <c r="A6" s="183"/>
-      <c r="B6" s="358" t="s">
+      <c r="B6" s="375" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="359"/>
+      <c r="C6" s="376"/>
       <c r="D6" s="223"/>
       <c r="E6" s="223"/>
       <c r="F6" s="223"/>
@@ -35412,7 +35396,7 @@
     <row r="8" spans="1:24" ht="30" customHeight="1">
       <c r="A8" s="183"/>
       <c r="B8" s="342" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" s="76">
         <f>Summary!C31</f>
@@ -35748,10 +35732,10 @@
       <c r="S19" s="183"/>
       <c r="T19" s="183"/>
       <c r="U19" s="183"/>
-      <c r="V19" s="360" t="s">
+      <c r="V19" s="377" t="s">
         <v>263</v>
       </c>
-      <c r="W19" s="356"/>
+      <c r="W19" s="373"/>
     </row>
     <row r="20" spans="1:23" ht="75.75" customHeight="1" thickBot="1">
       <c r="A20" s="218"/>
@@ -44101,7 +44085,7 @@
         <v>92</v>
       </c>
       <c r="C112" s="115">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">C111+E112-N112</f>
         <v>3377440.125</v>
       </c>
       <c r="D112" s="48">
@@ -45139,23 +45123,23 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="364" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1" s="353"/>
-      <c r="D1" s="353"/>
-      <c r="E1" s="353"/>
-      <c r="F1" s="353"/>
-      <c r="G1" s="353"/>
-      <c r="H1" s="353"/>
-      <c r="I1" s="353"/>
-      <c r="J1" s="353"/>
-      <c r="K1" s="353"/>
-      <c r="L1" s="353"/>
-      <c r="M1" s="353"/>
-      <c r="N1" s="353"/>
-      <c r="O1" s="353"/>
-      <c r="P1" s="353"/>
+      <c r="B1" s="381" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="370"/>
+      <c r="D1" s="370"/>
+      <c r="E1" s="370"/>
+      <c r="F1" s="370"/>
+      <c r="G1" s="370"/>
+      <c r="H1" s="370"/>
+      <c r="I1" s="370"/>
+      <c r="J1" s="370"/>
+      <c r="K1" s="370"/>
+      <c r="L1" s="370"/>
+      <c r="M1" s="370"/>
+      <c r="N1" s="370"/>
+      <c r="O1" s="370"/>
+      <c r="P1" s="370"/>
     </row>
     <row r="2" spans="1:17" s="184" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="183"/>
@@ -45177,25 +45161,25 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="183"/>
-      <c r="B3" s="361" t="s">
+      <c r="B3" s="378" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="362"/>
-      <c r="G3" s="362"/>
-      <c r="H3" s="363"/>
+      <c r="C3" s="379"/>
+      <c r="D3" s="379"/>
+      <c r="E3" s="379"/>
+      <c r="F3" s="379"/>
+      <c r="G3" s="379"/>
+      <c r="H3" s="380"/>
       <c r="I3" s="183"/>
-      <c r="J3" s="361" t="s">
+      <c r="J3" s="378" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="362"/>
-      <c r="L3" s="362"/>
-      <c r="M3" s="362"/>
-      <c r="N3" s="362"/>
-      <c r="O3" s="362"/>
-      <c r="P3" s="363"/>
+      <c r="K3" s="379"/>
+      <c r="L3" s="379"/>
+      <c r="M3" s="379"/>
+      <c r="N3" s="379"/>
+      <c r="O3" s="379"/>
+      <c r="P3" s="380"/>
       <c r="Q3" s="182"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
@@ -45204,44 +45188,44 @@
         <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="I4" s="243"/>
       <c r="J4" s="35" t="s">
         <v>45</v>
       </c>
       <c r="K4" s="181" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L4" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>47</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -48020,8 +48004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" topLeftCell="D85" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -48046,20 +48030,20 @@
   <sheetData>
     <row r="1" spans="1:20" ht="24" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="357" t="s">
+      <c r="B1" s="374" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354"/>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="371"/>
+      <c r="L1" s="371"/>
+      <c r="M1" s="371"/>
       <c r="N1" s="180"/>
       <c r="O1" s="180"/>
       <c r="P1" s="180"/>
@@ -48157,10 +48141,10 @@
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1">
       <c r="A6" s="242"/>
-      <c r="B6" s="365" t="s">
+      <c r="B6" s="382" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="366"/>
+      <c r="C6" s="383"/>
       <c r="D6" s="220"/>
       <c r="E6" s="220"/>
       <c r="F6" s="220"/>
@@ -48263,7 +48247,7 @@
     <row r="10" spans="1:20" ht="30" customHeight="1">
       <c r="A10" s="183"/>
       <c r="B10" s="337" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C10" s="264">
         <f>C9*C8*1000000</f>
@@ -48548,7 +48532,7 @@
         <v>302</v>
       </c>
       <c r="K20" s="336" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L20" s="43" t="s">
         <v>303</v>
@@ -48813,7 +48797,7 @@
         <v>31.851867642500672</v>
       </c>
       <c r="I24" s="119">
-        <f t="shared" si="7"/>
+        <f>I23+I$21</f>
         <v>1391.6866666666665</v>
       </c>
       <c r="J24" s="122">

--- a/excel/OilSandsExcel_v22.xlsx
+++ b/excel/OilSandsExcel_v22.xlsx
@@ -2864,6 +2864,10 @@
     <xf numFmtId="1" fontId="39" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2905,6 +2909,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2969,13 +2976,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3411,11 +3411,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-576198080"/>
-        <c:axId val="-576196992"/>
+        <c:axId val="1998090384"/>
+        <c:axId val="1998083312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-576198080"/>
+        <c:axId val="1998090384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3452,7 +3452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-576196992"/>
+        <c:crossAx val="1998083312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3460,7 +3460,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-576196992"/>
+        <c:axId val="1998083312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3511,7 +3511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-576198080"/>
+        <c:crossAx val="1998090384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6003,11 +6003,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-461247872"/>
-        <c:axId val="-461247328"/>
+        <c:axId val="1938782880"/>
+        <c:axId val="1703371744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-461247872"/>
+        <c:axId val="1938782880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6065,12 +6065,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-461247328"/>
+        <c:crossAx val="1703371744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-461247328"/>
+        <c:axId val="1703371744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6136,7 +6136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-461247872"/>
+        <c:crossAx val="1938782880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7461,11 +7461,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-461261472"/>
-        <c:axId val="-461260928"/>
+        <c:axId val="1880713152"/>
+        <c:axId val="1880703904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-461261472"/>
+        <c:axId val="1880713152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7574,7 +7574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-461260928"/>
+        <c:crossAx val="1880703904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7582,7 +7582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-461260928"/>
+        <c:axId val="1880703904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7699,7 +7699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-461261472"/>
+        <c:crossAx val="1880713152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8680,11 +8680,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-461260384"/>
-        <c:axId val="-461251680"/>
+        <c:axId val="2000829216"/>
+        <c:axId val="2000829760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-461260384"/>
+        <c:axId val="2000829216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8793,7 +8793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-461251680"/>
+        <c:crossAx val="2000829760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8801,7 +8801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-461251680"/>
+        <c:axId val="2000829760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8910,7 +8910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-461260384"/>
+        <c:crossAx val="2000829216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9013,7 +9013,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9444,11 +9443,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-576195360"/>
-        <c:axId val="-576194816"/>
+        <c:axId val="1998089296"/>
+        <c:axId val="1998084944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-576195360"/>
+        <c:axId val="1998089296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9494,7 +9493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-576194816"/>
+        <c:crossAx val="1998084944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9502,7 +9501,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-576194816"/>
+        <c:axId val="1998084944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9562,7 +9561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-576195360"/>
+        <c:crossAx val="1998089296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9636,7 +9635,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1">
+              <a:defRPr b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -12175,11 +12174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-450377488"/>
-        <c:axId val="-450379120"/>
+        <c:axId val="1998079504"/>
+        <c:axId val="1998080048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-450377488"/>
+        <c:axId val="1998079504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12278,7 +12277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-450379120"/>
+        <c:crossAx val="1998080048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12286,7 +12285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-450379120"/>
+        <c:axId val="1998080048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12409,7 +12408,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-450377488"/>
+        <c:crossAx val="1998079504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12553,7 +12552,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13937,11 +13935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-458150816"/>
-        <c:axId val="-458157888"/>
+        <c:axId val="1998093104"/>
+        <c:axId val="1998086032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-458150816"/>
+        <c:axId val="1998093104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14046,7 +14044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-458157888"/>
+        <c:crossAx val="1998086032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14054,7 +14052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-458157888"/>
+        <c:axId val="1998086032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14185,7 +14183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-458150816"/>
+        <c:crossAx val="1998093104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14199,7 +14197,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14318,7 +14315,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15689,11 +15685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-458155712"/>
-        <c:axId val="-458161152"/>
+        <c:axId val="1998090928"/>
+        <c:axId val="1998087120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-458155712"/>
+        <c:axId val="1998090928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15740,7 +15736,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15806,7 +15801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-458161152"/>
+        <c:crossAx val="1998087120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15814,7 +15809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-458161152"/>
+        <c:axId val="1998087120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15880,7 +15875,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15938,7 +15932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-458155712"/>
+        <c:crossAx val="1998090928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15952,7 +15946,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18497,11 +18490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-576192640"/>
-        <c:axId val="-784371232"/>
+        <c:axId val="1998088752"/>
+        <c:axId val="1998091472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-576192640"/>
+        <c:axId val="1998088752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18561,12 +18554,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-784371232"/>
+        <c:crossAx val="1998091472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-784371232"/>
+        <c:axId val="1998091472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18646,7 +18639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-576192640"/>
+        <c:crossAx val="1998088752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21152,11 +21145,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-784176832"/>
-        <c:axId val="-784174112"/>
+        <c:axId val="1998082224"/>
+        <c:axId val="1938790496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-784176832"/>
+        <c:axId val="1998082224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21208,12 +21201,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-784174112"/>
+        <c:crossAx val="1938790496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-784174112"/>
+        <c:axId val="1938790496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21289,7 +21282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-784176832"/>
+        <c:crossAx val="1998082224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21741,11 +21734,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-461250048"/>
-        <c:axId val="-461257120"/>
+        <c:axId val="1938793216"/>
+        <c:axId val="1938792128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-461250048"/>
+        <c:axId val="1938793216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21783,7 +21776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-461257120"/>
+        <c:crossAx val="1938792128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21791,7 +21784,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-461257120"/>
+        <c:axId val="1938792128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21843,7 +21836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-461250048"/>
+        <c:crossAx val="1938793216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24328,11 +24321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-461259296"/>
-        <c:axId val="-461248960"/>
+        <c:axId val="1938782336"/>
+        <c:axId val="1938795392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-461259296"/>
+        <c:axId val="1938782336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24390,12 +24383,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-461248960"/>
+        <c:crossAx val="1938795392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-461248960"/>
+        <c:axId val="1938795392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24474,7 +24467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-461259296"/>
+        <c:crossAx val="1938782336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -28050,20 +28043,20 @@
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="362" t="s">
+      <c r="B1" s="364" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="363"/>
-      <c r="D1" s="363"/>
-      <c r="E1" s="363"/>
-      <c r="F1" s="363"/>
-      <c r="G1" s="363"/>
-      <c r="H1" s="363"/>
-      <c r="I1" s="363"/>
-      <c r="J1" s="363"/>
-      <c r="K1" s="363"/>
-      <c r="L1" s="363"/>
-      <c r="M1" s="364"/>
+      <c r="C1" s="365"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="365"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
+      <c r="I1" s="365"/>
+      <c r="J1" s="365"/>
+      <c r="K1" s="365"/>
+      <c r="L1" s="365"/>
+      <c r="M1" s="366"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="183"/>
@@ -28931,15 +28924,15 @@
         <v>200</v>
       </c>
       <c r="D47" s="188"/>
-      <c r="E47" s="369"/>
-      <c r="F47" s="366"/>
-      <c r="G47" s="366"/>
-      <c r="H47" s="366"/>
-      <c r="I47" s="366"/>
-      <c r="J47" s="366"/>
-      <c r="K47" s="366"/>
-      <c r="L47" s="366"/>
-      <c r="M47" s="366"/>
+      <c r="E47" s="371"/>
+      <c r="F47" s="368"/>
+      <c r="G47" s="368"/>
+      <c r="H47" s="368"/>
+      <c r="I47" s="368"/>
+      <c r="J47" s="368"/>
+      <c r="K47" s="368"/>
+      <c r="L47" s="368"/>
+      <c r="M47" s="368"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="183"/>
@@ -29246,9 +29239,9 @@
         <v>141.78240740740739</v>
       </c>
       <c r="D63" s="197"/>
-      <c r="E63" s="365"/>
-      <c r="F63" s="366"/>
-      <c r="G63" s="366"/>
+      <c r="E63" s="367"/>
+      <c r="F63" s="368"/>
+      <c r="G63" s="368"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -29266,9 +29259,9 @@
         <v>1242.0138888888887</v>
       </c>
       <c r="D64" s="197"/>
-      <c r="E64" s="366"/>
-      <c r="F64" s="366"/>
-      <c r="G64" s="366"/>
+      <c r="E64" s="368"/>
+      <c r="F64" s="368"/>
+      <c r="G64" s="368"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -29526,14 +29519,14 @@
         <v>22</v>
       </c>
       <c r="D78" s="201"/>
-      <c r="E78" s="367" t="s">
+      <c r="E78" s="369" t="s">
         <v>347</v>
       </c>
-      <c r="F78" s="366"/>
-      <c r="G78" s="366"/>
-      <c r="H78" s="366"/>
-      <c r="I78" s="366"/>
-      <c r="J78" s="366"/>
+      <c r="F78" s="368"/>
+      <c r="G78" s="368"/>
+      <c r="H78" s="368"/>
+      <c r="I78" s="368"/>
+      <c r="J78" s="368"/>
       <c r="K78" s="183"/>
       <c r="L78" s="183"/>
       <c r="M78" s="183"/>
@@ -29548,12 +29541,12 @@
         <v>2.5</v>
       </c>
       <c r="D79" s="183"/>
-      <c r="E79" s="366"/>
-      <c r="F79" s="366"/>
-      <c r="G79" s="366"/>
-      <c r="H79" s="366"/>
-      <c r="I79" s="366"/>
-      <c r="J79" s="366"/>
+      <c r="E79" s="368"/>
+      <c r="F79" s="368"/>
+      <c r="G79" s="368"/>
+      <c r="H79" s="368"/>
+      <c r="I79" s="368"/>
+      <c r="J79" s="368"/>
       <c r="K79" s="183"/>
       <c r="L79" s="183"/>
       <c r="M79" s="183"/>
@@ -29636,7 +29629,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="183"/>
-      <c r="B84" s="368" t="s">
+      <c r="B84" s="370" t="s">
         <v>386</v>
       </c>
       <c r="C84" s="161">
@@ -29658,7 +29651,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="183"/>
-      <c r="B85" s="366"/>
+      <c r="B85" s="368"/>
       <c r="C85" s="161">
         <v>1389</v>
       </c>
@@ -29753,23 +29746,23 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24.75" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="381" t="s">
+      <c r="B1" s="384" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="370"/>
-      <c r="D1" s="370"/>
-      <c r="E1" s="370"/>
-      <c r="F1" s="370"/>
-      <c r="G1" s="370"/>
-      <c r="H1" s="370"/>
-      <c r="I1" s="370"/>
-      <c r="J1" s="370"/>
-      <c r="K1" s="370"/>
-      <c r="L1" s="370"/>
-      <c r="M1" s="370"/>
-      <c r="N1" s="370"/>
-      <c r="O1" s="370"/>
-      <c r="P1" s="370"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="372"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="372"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
+      <c r="M1" s="372"/>
+      <c r="N1" s="372"/>
+      <c r="O1" s="372"/>
+      <c r="P1" s="372"/>
     </row>
     <row r="2" spans="1:17" s="184" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="183"/>
@@ -29791,25 +29784,25 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="183"/>
-      <c r="B3" s="378" t="s">
+      <c r="B3" s="381" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="379"/>
-      <c r="D3" s="379"/>
-      <c r="E3" s="379"/>
-      <c r="F3" s="379"/>
-      <c r="G3" s="379"/>
-      <c r="H3" s="380"/>
+      <c r="C3" s="382"/>
+      <c r="D3" s="382"/>
+      <c r="E3" s="382"/>
+      <c r="F3" s="382"/>
+      <c r="G3" s="382"/>
+      <c r="H3" s="383"/>
       <c r="I3" s="183"/>
-      <c r="J3" s="378" t="s">
+      <c r="J3" s="381" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="379"/>
-      <c r="L3" s="379"/>
-      <c r="M3" s="379"/>
-      <c r="N3" s="379"/>
-      <c r="O3" s="379"/>
-      <c r="P3" s="380"/>
+      <c r="K3" s="382"/>
+      <c r="L3" s="382"/>
+      <c r="M3" s="382"/>
+      <c r="N3" s="382"/>
+      <c r="O3" s="382"/>
+      <c r="P3" s="383"/>
       <c r="Q3" s="182"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
@@ -32660,20 +32653,20 @@
   <sheetData>
     <row r="1" spans="1:20" ht="24" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="374" t="s">
+      <c r="B1" s="376" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="371"/>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
-      <c r="M1" s="371"/>
+      <c r="C1" s="373"/>
+      <c r="D1" s="373"/>
+      <c r="E1" s="373"/>
+      <c r="F1" s="373"/>
+      <c r="G1" s="373"/>
+      <c r="H1" s="373"/>
+      <c r="I1" s="373"/>
+      <c r="J1" s="373"/>
+      <c r="K1" s="373"/>
+      <c r="L1" s="373"/>
+      <c r="M1" s="373"/>
       <c r="N1" s="180"/>
       <c r="O1" s="180"/>
       <c r="P1" s="180"/>
@@ -32771,10 +32764,10 @@
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1">
       <c r="A6" s="242"/>
-      <c r="B6" s="382" t="s">
+      <c r="B6" s="385" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="383"/>
+      <c r="C6" s="386"/>
       <c r="D6" s="220"/>
       <c r="E6" s="220"/>
       <c r="F6" s="220"/>
@@ -40756,23 +40749,23 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="370" t="s">
+      <c r="B1" s="372" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="370"/>
-      <c r="D1" s="370"/>
-      <c r="E1" s="370"/>
-      <c r="F1" s="370"/>
-      <c r="G1" s="370"/>
-      <c r="H1" s="370"/>
-      <c r="I1" s="370"/>
-      <c r="J1" s="370"/>
-      <c r="K1" s="370"/>
-      <c r="L1" s="370"/>
-      <c r="M1" s="370"/>
-      <c r="N1" s="370"/>
-      <c r="O1" s="370"/>
-      <c r="P1" s="370"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="372"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="372"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
+      <c r="M1" s="372"/>
+      <c r="N1" s="372"/>
+      <c r="O1" s="372"/>
+      <c r="P1" s="372"/>
     </row>
     <row r="2" spans="1:16" s="184" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="183"/>
@@ -40793,24 +40786,24 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A3" s="183"/>
-      <c r="B3" s="384" t="s">
+      <c r="B3" s="387" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="385"/>
-      <c r="D3" s="385"/>
-      <c r="E3" s="385"/>
-      <c r="F3" s="385"/>
-      <c r="G3" s="385"/>
-      <c r="H3" s="386"/>
-      <c r="J3" s="384" t="s">
+      <c r="C3" s="388"/>
+      <c r="D3" s="388"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="388"/>
+      <c r="G3" s="388"/>
+      <c r="H3" s="389"/>
+      <c r="J3" s="387" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="385"/>
-      <c r="L3" s="385"/>
-      <c r="M3" s="385"/>
-      <c r="N3" s="385"/>
-      <c r="O3" s="385"/>
-      <c r="P3" s="386"/>
+      <c r="K3" s="388"/>
+      <c r="L3" s="388"/>
+      <c r="M3" s="388"/>
+      <c r="N3" s="388"/>
+      <c r="O3" s="388"/>
+      <c r="P3" s="389"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="183"/>
@@ -46764,22 +46757,22 @@
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
       <c r="A1" s="242"/>
-      <c r="B1" s="390" t="s">
+      <c r="B1" s="393" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
-      <c r="I1" s="391"/>
-      <c r="J1" s="391"/>
-      <c r="K1" s="391"/>
-      <c r="L1" s="391"/>
-      <c r="M1" s="391"/>
-      <c r="N1" s="391"/>
-      <c r="O1" s="391"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="394"/>
+      <c r="F1" s="394"/>
+      <c r="G1" s="394"/>
+      <c r="H1" s="394"/>
+      <c r="I1" s="394"/>
+      <c r="J1" s="394"/>
+      <c r="K1" s="394"/>
+      <c r="L1" s="394"/>
+      <c r="M1" s="394"/>
+      <c r="N1" s="394"/>
+      <c r="O1" s="394"/>
       <c r="P1" s="242"/>
       <c r="Q1" s="242"/>
     </row>
@@ -47617,10 +47610,10 @@
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="183"/>
-      <c r="B38" s="392" t="s">
+      <c r="B38" s="395" t="s">
         <v>238</v>
       </c>
-      <c r="C38" s="388"/>
+      <c r="C38" s="391"/>
       <c r="D38" s="311" t="s">
         <v>249</v>
       </c>
@@ -47666,31 +47659,31 @@
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="183"/>
-      <c r="B39" s="393"/>
-      <c r="C39" s="388"/>
-      <c r="D39" s="394" t="s">
+      <c r="B39" s="396"/>
+      <c r="C39" s="391"/>
+      <c r="D39" s="397" t="s">
         <v>264</v>
       </c>
-      <c r="E39" s="388"/>
-      <c r="F39" s="388"/>
-      <c r="G39" s="388"/>
-      <c r="H39" s="388"/>
-      <c r="I39" s="388"/>
-      <c r="J39" s="388"/>
-      <c r="K39" s="388"/>
-      <c r="L39" s="388"/>
-      <c r="M39" s="388"/>
-      <c r="N39" s="388"/>
-      <c r="O39" s="388"/>
-      <c r="P39" s="388"/>
-      <c r="Q39" s="388"/>
+      <c r="E39" s="391"/>
+      <c r="F39" s="391"/>
+      <c r="G39" s="391"/>
+      <c r="H39" s="391"/>
+      <c r="I39" s="391"/>
+      <c r="J39" s="391"/>
+      <c r="K39" s="391"/>
+      <c r="L39" s="391"/>
+      <c r="M39" s="391"/>
+      <c r="N39" s="391"/>
+      <c r="O39" s="391"/>
+      <c r="P39" s="391"/>
+      <c r="Q39" s="391"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="183"/>
-      <c r="B40" s="387" t="s">
+      <c r="B40" s="390" t="s">
         <v>288</v>
       </c>
-      <c r="C40" s="388"/>
+      <c r="C40" s="391"/>
       <c r="D40" s="312">
         <v>75077</v>
       </c>
@@ -47736,10 +47729,10 @@
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="183"/>
-      <c r="B41" s="387" t="s">
+      <c r="B41" s="390" t="s">
         <v>290</v>
       </c>
-      <c r="C41" s="388"/>
+      <c r="C41" s="391"/>
       <c r="D41" s="312">
         <v>3973</v>
       </c>
@@ -47785,10 +47778,10 @@
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="183"/>
-      <c r="B42" s="387" t="s">
+      <c r="B42" s="390" t="s">
         <v>291</v>
       </c>
-      <c r="C42" s="388"/>
+      <c r="C42" s="391"/>
       <c r="D42" s="313">
         <v>20</v>
       </c>
@@ -47834,10 +47827,10 @@
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="183"/>
-      <c r="B43" s="387" t="s">
+      <c r="B43" s="390" t="s">
         <v>292</v>
       </c>
-      <c r="C43" s="388"/>
+      <c r="C43" s="391"/>
       <c r="D43" s="313">
         <v>108</v>
       </c>
@@ -47883,10 +47876,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="183"/>
-      <c r="B44" s="387" t="s">
+      <c r="B44" s="390" t="s">
         <v>293</v>
       </c>
-      <c r="C44" s="388"/>
+      <c r="C44" s="391"/>
       <c r="D44" s="312">
         <v>51365</v>
       </c>
@@ -48128,10 +48121,10 @@
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1">
       <c r="A49" s="183"/>
-      <c r="B49" s="389" t="s">
+      <c r="B49" s="392" t="s">
         <v>307</v>
       </c>
-      <c r="C49" s="388"/>
+      <c r="C49" s="391"/>
       <c r="D49" s="316">
         <v>130543</v>
       </c>
@@ -48408,15 +48401,15 @@
     </row>
     <row r="9" spans="1:20" ht="17.25" customHeight="1">
       <c r="A9" s="321"/>
-      <c r="B9" s="397" t="s">
+      <c r="B9" s="400" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="398"/>
-      <c r="D9" s="398"/>
-      <c r="E9" s="398"/>
-      <c r="F9" s="398"/>
-      <c r="G9" s="398"/>
-      <c r="H9" s="399"/>
+      <c r="C9" s="401"/>
+      <c r="D9" s="401"/>
+      <c r="E9" s="401"/>
+      <c r="F9" s="401"/>
+      <c r="G9" s="401"/>
+      <c r="H9" s="402"/>
       <c r="I9" s="69">
         <f>I10*I11*I12*I13</f>
         <v>1174665803143.3186</v>
@@ -48437,15 +48430,15 @@
     </row>
     <row r="10" spans="1:20" ht="17.25" customHeight="1">
       <c r="A10" s="321"/>
-      <c r="B10" s="397" t="s">
+      <c r="B10" s="400" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="398"/>
-      <c r="D10" s="398"/>
-      <c r="E10" s="398"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="398"/>
-      <c r="H10" s="399"/>
+      <c r="C10" s="401"/>
+      <c r="D10" s="401"/>
+      <c r="E10" s="401"/>
+      <c r="F10" s="401"/>
+      <c r="G10" s="401"/>
+      <c r="H10" s="402"/>
       <c r="I10" s="79">
         <f>Summary!C57</f>
         <v>6309000000</v>
@@ -48466,15 +48459,15 @@
     </row>
     <row r="11" spans="1:20" ht="17.25" customHeight="1">
       <c r="A11" s="321"/>
-      <c r="B11" s="397" t="s">
+      <c r="B11" s="400" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="398"/>
-      <c r="D11" s="398"/>
-      <c r="E11" s="398"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="398"/>
-      <c r="H11" s="399"/>
+      <c r="C11" s="401"/>
+      <c r="D11" s="401"/>
+      <c r="E11" s="401"/>
+      <c r="F11" s="401"/>
+      <c r="G11" s="401"/>
+      <c r="H11" s="402"/>
       <c r="I11" s="81">
         <f>Summary!C60</f>
         <v>0.2</v>
@@ -48493,15 +48486,15 @@
     </row>
     <row r="12" spans="1:20" ht="17.25" customHeight="1">
       <c r="A12" s="321"/>
-      <c r="B12" s="397" t="s">
+      <c r="B12" s="400" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="398"/>
-      <c r="D12" s="398"/>
-      <c r="E12" s="398"/>
-      <c r="F12" s="398"/>
-      <c r="G12" s="398"/>
-      <c r="H12" s="399"/>
+      <c r="C12" s="401"/>
+      <c r="D12" s="401"/>
+      <c r="E12" s="401"/>
+      <c r="F12" s="401"/>
+      <c r="G12" s="401"/>
+      <c r="H12" s="402"/>
       <c r="I12" s="93">
         <f>Summary!C64</f>
         <v>1242.0138888888887</v>
@@ -48522,15 +48515,15 @@
     </row>
     <row r="13" spans="1:20" ht="17.25" customHeight="1">
       <c r="A13" s="321"/>
-      <c r="B13" s="397" t="s">
+      <c r="B13" s="400" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="398"/>
-      <c r="D13" s="398"/>
-      <c r="E13" s="398"/>
-      <c r="F13" s="398"/>
-      <c r="G13" s="398"/>
-      <c r="H13" s="399"/>
+      <c r="C13" s="401"/>
+      <c r="D13" s="401"/>
+      <c r="E13" s="401"/>
+      <c r="F13" s="401"/>
+      <c r="G13" s="401"/>
+      <c r="H13" s="402"/>
       <c r="I13" s="94">
         <f>(1-I18)*(1-I19)*(1-I20)*(1-I21)*(1-I22)*(1-I23)*(1-I24)*(1-I25)</f>
         <v>0.7495443766899198</v>
@@ -48576,10 +48569,10 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="395" t="s">
+      <c r="G15" s="398" t="s">
         <v>214</v>
       </c>
-      <c r="H15" s="366"/>
+      <c r="H15" s="368"/>
       <c r="I15" s="102">
         <f>1000*I9/(24*365*1000000000)</f>
         <v>134.094269765219</v>
@@ -48587,12 +48580,12 @@
       <c r="J15" s="104" t="s">
         <v>228</v>
       </c>
-      <c r="K15" s="396"/>
-      <c r="L15" s="373"/>
-      <c r="M15" s="373"/>
-      <c r="N15" s="373"/>
-      <c r="O15" s="373"/>
-      <c r="P15" s="373"/>
+      <c r="K15" s="399"/>
+      <c r="L15" s="375"/>
+      <c r="M15" s="375"/>
+      <c r="N15" s="375"/>
+      <c r="O15" s="375"/>
+      <c r="P15" s="375"/>
       <c r="Q15" s="319"/>
       <c r="R15" s="320"/>
       <c r="S15" s="320"/>
@@ -48609,12 +48602,12 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
-      <c r="K16" s="396"/>
-      <c r="L16" s="373"/>
-      <c r="M16" s="373"/>
-      <c r="N16" s="373"/>
-      <c r="O16" s="373"/>
-      <c r="P16" s="373"/>
+      <c r="K16" s="399"/>
+      <c r="L16" s="375"/>
+      <c r="M16" s="375"/>
+      <c r="N16" s="375"/>
+      <c r="O16" s="375"/>
+      <c r="P16" s="375"/>
       <c r="Q16" s="319"/>
       <c r="R16" s="320"/>
       <c r="S16" s="320"/>
@@ -49058,21 +49051,21 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" thickBot="1">
       <c r="A1" s="211"/>
-      <c r="B1" s="400" t="s">
+      <c r="B1" s="403" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="366"/>
-      <c r="D1" s="366"/>
-      <c r="E1" s="366"/>
-      <c r="F1" s="366"/>
-      <c r="G1" s="366"/>
-      <c r="H1" s="366"/>
-      <c r="I1" s="366"/>
-      <c r="J1" s="366"/>
-      <c r="K1" s="366"/>
-      <c r="L1" s="366"/>
-      <c r="M1" s="366"/>
-      <c r="N1" s="366"/>
+      <c r="C1" s="368"/>
+      <c r="D1" s="368"/>
+      <c r="E1" s="368"/>
+      <c r="F1" s="368"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
+      <c r="M1" s="368"/>
+      <c r="N1" s="368"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="211"/>
@@ -50276,13 +50269,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="370" t="s">
+      <c r="B1" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="371"/>
+      <c r="C1" s="373"/>
+      <c r="D1" s="373"/>
+      <c r="E1" s="373"/>
+      <c r="F1" s="373"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="183"/>
@@ -50481,13 +50474,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="370" t="s">
+      <c r="B1" s="372" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="371"/>
+      <c r="C1" s="373"/>
+      <c r="D1" s="373"/>
+      <c r="E1" s="373"/>
+      <c r="F1" s="373"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="183"/>
@@ -50704,14 +50697,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="370" t="s">
+      <c r="B1" s="372" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="371"/>
-      <c r="G1" s="371"/>
+      <c r="C1" s="373"/>
+      <c r="D1" s="373"/>
+      <c r="E1" s="373"/>
+      <c r="F1" s="373"/>
+      <c r="G1" s="373"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="183"/>
@@ -51447,13 +51440,13 @@
       <c r="A22" s="183"/>
       <c r="B22" s="183"/>
       <c r="C22" s="183"/>
-      <c r="D22" s="372" t="s">
+      <c r="D22" s="374" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="373"/>
-      <c r="F22" s="373"/>
-      <c r="G22" s="373"/>
-      <c r="H22" s="373"/>
+      <c r="E22" s="375"/>
+      <c r="F22" s="375"/>
+      <c r="G22" s="375"/>
+      <c r="H22" s="375"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="183"/>
@@ -54400,21 +54393,21 @@
   <sheetData>
     <row r="1" spans="1:24" ht="28.5" customHeight="1">
       <c r="A1" s="183"/>
-      <c r="B1" s="374" t="s">
+      <c r="B1" s="376" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="371"/>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
-      <c r="M1" s="371"/>
-      <c r="N1" s="371"/>
+      <c r="C1" s="373"/>
+      <c r="D1" s="373"/>
+      <c r="E1" s="373"/>
+      <c r="F1" s="373"/>
+      <c r="G1" s="373"/>
+      <c r="H1" s="373"/>
+      <c r="I1" s="373"/>
+      <c r="J1" s="373"/>
+      <c r="K1" s="373"/>
+      <c r="L1" s="373"/>
+      <c r="M1" s="373"/>
+      <c r="N1" s="373"/>
       <c r="O1" s="221"/>
       <c r="P1" s="221"/>
       <c r="Q1" s="221"/>
@@ -54532,10 +54525,10 @@
     </row>
     <row r="6" spans="1:24" ht="16.5" customHeight="1" thickBot="1">
       <c r="A6" s="183"/>
-      <c r="B6" s="375" t="s">
+      <c r="B6" s="377" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="376"/>
+      <c r="C6" s="378"/>
       <c r="D6" s="223"/>
       <c r="E6" s="223"/>
       <c r="F6" s="223"/>
@@ -54679,7 +54672,7 @@
     </row>
     <row r="11" spans="1:24" ht="30" customHeight="1">
       <c r="A11" s="183"/>
-      <c r="B11" s="402" t="s">
+      <c r="B11" s="362" t="s">
         <v>224</v>
       </c>
       <c r="C11" s="92">
@@ -54927,10 +54920,10 @@
       <c r="S19" s="183"/>
       <c r="T19" s="183"/>
       <c r="U19" s="183"/>
-      <c r="V19" s="377" t="s">
+      <c r="V19" s="379" t="s">
         <v>263</v>
       </c>
-      <c r="W19" s="373"/>
+      <c r="W19" s="375"/>
     </row>
     <row r="20" spans="1:23" ht="75.75" customHeight="1" thickBot="1">
       <c r="A20" s="218"/>
@@ -64293,7 +64286,7 @@
   <dimension ref="C2:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C60" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -64339,7 +64332,7 @@
       <c r="C5" s="124">
         <v>1</v>
       </c>
-      <c r="D5" s="403">
+      <c r="D5" s="363">
         <v>0</v>
       </c>
       <c r="E5" s="347">
@@ -64363,7 +64356,7 @@
         <f t="shared" ref="C6:C64" si="0">C5+1</f>
         <v>2</v>
       </c>
-      <c r="D6" s="403">
+      <c r="D6" s="363">
         <v>4.7651382341917358E-3</v>
       </c>
       <c r="E6" s="347">
@@ -64387,7 +64380,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D7" s="403">
+      <c r="D7" s="363">
         <v>9.5295130079598219E-3</v>
       </c>
       <c r="E7" s="347">
@@ -64411,7 +64404,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8" s="403">
+      <c r="D8" s="363">
         <v>1.4293696916622002E-2</v>
       </c>
       <c r="E8" s="347">
@@ -64435,7 +64428,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D9" s="403">
+      <c r="D9" s="363">
         <v>1.9057804479241814E-2</v>
       </c>
       <c r="E9" s="347">
@@ -64459,7 +64452,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D10" s="403">
+      <c r="D10" s="363">
         <v>2.3821873868840444E-2</v>
       </c>
       <c r="E10" s="347">
@@ -64483,7 +64476,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D11" s="403">
+      <c r="D11" s="363">
         <v>2.8585921445284108E-2</v>
       </c>
       <c r="E11" s="347">
@@ -64507,7 +64500,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D12" s="403">
+      <c r="D12" s="363">
         <v>3.3349955388505929E-2</v>
       </c>
       <c r="E12" s="347">
@@ -64531,7 +64524,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D13" s="403">
+      <c r="D13" s="363">
         <v>3.8113980242913174E-2</v>
       </c>
       <c r="E13" s="347">
@@ -64555,7 +64548,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D14" s="403">
+      <c r="D14" s="363">
         <v>4.2877998735150233E-2</v>
       </c>
       <c r="E14" s="347">
@@ -64579,7 +64572,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D15" s="403">
+      <c r="D15" s="363">
         <v>4.7642012600354403E-2</v>
       </c>
       <c r="E15" s="347">
@@ -64603,7 +64596,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D16" s="403">
+      <c r="D16" s="363">
         <v>5.2406022995283942E-2</v>
       </c>
       <c r="E16" s="347">
@@ -64627,7 +64620,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D17" s="403">
+      <c r="D17" s="363">
         <v>5.7170030720771418E-2</v>
       </c>
       <c r="E17" s="347">
@@ -64651,7 +64644,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D18" s="403">
+      <c r="D18" s="363">
         <v>6.1934036348840149E-2</v>
       </c>
       <c r="E18" s="347">
@@ -64675,7 +64668,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D19" s="403">
+      <c r="D19" s="363">
         <v>6.6698040298973901E-2</v>
       </c>
       <c r="E19" s="347">
@@ -64699,7 +64692,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D20" s="403">
+      <c r="D20" s="363">
         <v>7.1462042885785462E-2</v>
       </c>
       <c r="E20" s="347">
@@ -64723,7 +64716,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D21" s="403">
+      <c r="D21" s="363">
         <v>7.6226044349861105E-2</v>
       </c>
       <c r="E21" s="347">
@@ -64747,7 +64740,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D22" s="403">
+      <c r="D22" s="363">
         <v>8.0990044878323481E-2</v>
       </c>
       <c r="E22" s="347">
@@ -64771,7 +64764,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D23" s="403">
+      <c r="D23" s="363">
         <v>8.5754044618901015E-2</v>
       </c>
       <c r="E23" s="347">
@@ -64795,7 +64788,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D24" s="403">
+      <c r="D24" s="363">
         <v>9.0518043689776409E-2</v>
       </c>
       <c r="E24" s="347">
@@ -64819,7 +64812,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D25" s="403">
+      <c r="D25" s="363">
         <v>9.5282042186621424E-2</v>
       </c>
       <c r="E25" s="347">
@@ -64843,7 +64836,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D26" s="403">
+      <c r="D26" s="363">
         <v>9.9611284179192558E-2</v>
       </c>
       <c r="E26" s="347">
@@ -64867,7 +64860,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D27" s="403">
+      <c r="D27" s="363">
         <v>0.10356407034632273</v>
       </c>
       <c r="E27" s="347">
@@ -64891,7 +64884,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D28" s="403">
+      <c r="D28" s="363">
         <v>0.10718745766619206</v>
       </c>
       <c r="E28" s="347">
@@ -64915,7 +64908,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D29" s="403">
+      <c r="D29" s="363">
         <v>0.11052097400047182</v>
       </c>
       <c r="E29" s="347">
@@ -64939,7 +64932,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D30" s="403">
+      <c r="D30" s="363">
         <v>0.11359806600134546</v>
       </c>
       <c r="E30" s="347">
@@ -64963,7 +64956,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D31" s="403">
+      <c r="D31" s="363">
         <v>0.11644722526141366</v>
       </c>
       <c r="E31" s="347">
@@ -64987,7 +64980,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D32" s="403">
+      <c r="D32" s="363">
         <v>0.11909287314576268</v>
       </c>
       <c r="E32" s="347">
@@ -65011,7 +65004,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D33" s="403">
+      <c r="D33" s="363">
         <v>0.12155606255532903</v>
       </c>
       <c r="E33" s="347">
@@ -65035,7 +65028,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D34" s="403">
+      <c r="D34" s="363">
         <v>0.12385503933759097</v>
       </c>
       <c r="E34" s="347">
@@ -65059,7 +65052,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D35" s="403">
+      <c r="D35" s="363">
         <v>0.1260056950371263</v>
       </c>
       <c r="E35" s="347">
@@ -65083,7 +65076,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D36" s="403">
+      <c r="D36" s="363">
         <v>0.12802193475544069</v>
       </c>
       <c r="E36" s="347">
@@ -65107,7 +65100,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D37" s="403">
+      <c r="D37" s="363">
         <v>0.12991597812719058</v>
       </c>
       <c r="E37" s="347">
@@ -65131,7 +65124,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D38" s="403">
+      <c r="D38" s="363">
         <v>0.13169860718295517</v>
       </c>
       <c r="E38" s="347">
@@ -65155,7 +65148,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D39" s="403">
+      <c r="D39" s="363">
         <v>0.1333793717212475</v>
       </c>
       <c r="E39" s="347">
@@ -65179,7 +65172,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D40" s="403">
+      <c r="D40" s="363">
         <v>0.13496676045185693</v>
       </c>
       <c r="E40" s="347">
@@ -65203,7 +65196,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D41" s="403">
+      <c r="D41" s="363">
         <v>0.13646834438621719</v>
       </c>
       <c r="E41" s="347">
@@ -65227,7 +65220,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D42" s="403">
+      <c r="D42" s="363">
         <v>0.13789089758719009</v>
       </c>
       <c r="E42" s="347">
@@ -65251,7 +65244,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D43" s="403">
+      <c r="D43" s="363">
         <v>0.13924049934195923</v>
       </c>
       <c r="E43" s="347">
@@ -65275,7 +65268,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D44" s="403">
+      <c r="D44" s="363">
         <v>0.14052262100898991</v>
       </c>
       <c r="E44" s="347">
@@ -65299,7 +65292,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D45" s="403">
+      <c r="D45" s="363">
         <v>0.14174220015567765</v>
       </c>
       <c r="E45" s="347">
@@ -65323,7 +65316,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="D46" s="403">
+      <c r="D46" s="363">
         <v>0.14290370410490405</v>
       </c>
       <c r="E46" s="347">
@@ -65347,7 +65340,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D47" s="403">
+      <c r="D47" s="363">
         <v>0.14401118461463155</v>
       </c>
       <c r="E47" s="347">
@@ -65371,7 +65364,7 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D48" s="403">
+      <c r="D48" s="363">
         <v>0.14506832510118961</v>
       </c>
       <c r="E48" s="347">
@@ -65395,7 +65388,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D49" s="403">
+      <c r="D49" s="363">
         <v>0.14607848156612291</v>
       </c>
       <c r="E49" s="347">
@@ -65419,7 +65412,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="D50" s="403">
+      <c r="D50" s="363">
         <v>0.14704471818475473</v>
       </c>
       <c r="E50" s="347">
@@ -65443,7 +65436,7 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="D51" s="403">
+      <c r="D51" s="363">
         <v>0.14796983835152985</v>
       </c>
       <c r="E51" s="347">
@@ -65467,7 +65460,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="D52" s="403">
+      <c r="D52" s="363">
         <v>0.1488564118446894</v>
       </c>
       <c r="E52" s="347">
@@ -65491,7 +65484,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D53" s="403">
+      <c r="D53" s="363">
         <v>0.14970679866465872</v>
       </c>
       <c r="E53" s="347">
@@ -65515,7 +65508,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D54" s="403">
+      <c r="D54" s="363">
         <v>0.15052317001182927</v>
       </c>
       <c r="E54" s="347">
@@ -65539,7 +65532,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D55" s="403">
+      <c r="D55" s="363">
         <v>0.15130752679636572</v>
       </c>
       <c r="E55" s="347">
@@ -65563,7 +65556,7 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D56" s="403">
+      <c r="D56" s="363">
         <v>0.15206171601226609</v>
       </c>
       <c r="E56" s="347">
@@ -65587,7 +65580,7 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D57" s="403">
+      <c r="D57" s="363">
         <v>0.15278744525775517</v>
       </c>
       <c r="E57" s="347">
@@ -65611,7 +65604,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="D58" s="403">
+      <c r="D58" s="363">
         <v>0.15348629564230018</v>
       </c>
       <c r="E58" s="347">
@@ -65635,7 +65628,7 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="D59" s="403">
+      <c r="D59" s="363">
         <v>0.15415973328558905</v>
       </c>
       <c r="E59" s="347">
@@ -65659,7 +65652,7 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D60" s="403">
+      <c r="D60" s="363">
         <v>0.15480911958447471</v>
       </c>
       <c r="E60" s="347">
@@ -65683,7 +65676,7 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="D61" s="403">
+      <c r="D61" s="363">
         <v>0.15543572039918893</v>
       </c>
       <c r="E61" s="347">
@@ -65707,7 +65700,7 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="D62" s="403">
+      <c r="D62" s="363">
         <v>0.15604071428925784</v>
       </c>
       <c r="E62" s="347">
@@ -65731,7 +65724,7 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="D63" s="403">
+      <c r="D63" s="363">
         <v>0.1566251999118668</v>
       </c>
       <c r="E63" s="347">
@@ -65755,7 +65748,7 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D64" s="403">
+      <c r="D64" s="363">
         <v>0.1571902026803888</v>
       </c>
       <c r="E64" s="347">
@@ -65807,24 +65800,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19">
-      <c r="B1" s="401" t="s">
+      <c r="B1" s="380" t="s">
         <v>387</v>
       </c>
-      <c r="C1" s="401"/>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="401"/>
-      <c r="M1" s="401" t="s">
+      <c r="C1" s="380"/>
+      <c r="D1" s="380"/>
+      <c r="E1" s="380"/>
+      <c r="F1" s="380"/>
+      <c r="G1" s="380"/>
+      <c r="H1" s="380"/>
+      <c r="M1" s="380" t="s">
         <v>388</v>
       </c>
-      <c r="N1" s="401"/>
-      <c r="O1" s="401"/>
-      <c r="P1" s="401"/>
-      <c r="Q1" s="401"/>
-      <c r="R1" s="401"/>
-      <c r="S1" s="401"/>
+      <c r="N1" s="380"/>
+      <c r="O1" s="380"/>
+      <c r="P1" s="380"/>
+      <c r="Q1" s="380"/>
+      <c r="R1" s="380"/>
+      <c r="S1" s="380"/>
     </row>
     <row r="2" spans="2:19" ht="13.5" thickBot="1"/>
     <row r="3" spans="2:19" ht="30.75" thickBot="1">
